--- a/docs/enum/枚举的注释说明.xlsx
+++ b/docs/enum/枚举的注释说明.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="5445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mogoroomdb" sheetId="1" r:id="rId1"/>
@@ -12,17 +12,18 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acct!$A$1:$F$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mogoroomdb!$A$1:$F$413</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acct!$A$1:$F$3</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="1188">
   <si>
     <t>表名</t>
   </si>
@@ -7436,281 +7437,517 @@
     <t>业务类型。参考comm_busitype表。</t>
   </si>
   <si>
+    <t>创建人类型。参考字段表useType。</t>
+  </si>
+  <si>
+    <t>创建人类型(参考字典表组名:useType)</t>
+  </si>
+  <si>
+    <t>操作渠道。参考字典表。</t>
+  </si>
+  <si>
+    <t>acct_billdtl_chghistory</t>
+  </si>
+  <si>
+    <t>acct_billdtltype</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>0无效1有效</t>
+  </si>
+  <si>
+    <t>usageType</t>
+  </si>
+  <si>
+    <t>0,1,2</t>
+  </si>
+  <si>
+    <t>使用类型。0:固定类型、1：一般自定义费用类型、2:自定义押金费用类型</t>
+  </si>
+  <si>
+    <t>使用类型(0:固定类型 1：一般自定义费用类型 2:自定义押金费用类型)</t>
+  </si>
+  <si>
+    <t>acct_billtype</t>
+  </si>
+  <si>
+    <t>acct_busifeedtl</t>
+  </si>
+  <si>
+    <t>acct_busirec</t>
+  </si>
+  <si>
+    <t>acct_check</t>
+  </si>
+  <si>
+    <t>updateBy</t>
+  </si>
+  <si>
+    <t>更新人</t>
+  </si>
+  <si>
+    <t>verified</t>
+  </si>
+  <si>
+    <t>修改之后是否已经审核</t>
+  </si>
+  <si>
+    <t>付款渠道</t>
+  </si>
+  <si>
+    <t>checkType</t>
+  </si>
+  <si>
+    <t>对账类型 余额 资金 业务</t>
+  </si>
+  <si>
+    <t>acct_checkacctfunddetail</t>
+  </si>
+  <si>
+    <t>是否已经审核</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>是否已经处理</t>
+  </si>
+  <si>
+    <t>errorType</t>
+  </si>
+  <si>
+    <t>余额错误类型</t>
+  </si>
+  <si>
+    <t>acct_checkbillfunddetail</t>
+  </si>
+  <si>
+    <t>acct_checkbilltradedetail</t>
+  </si>
+  <si>
+    <t>acct_checkbizdetail</t>
+  </si>
+  <si>
+    <t>acct_checktradedetail</t>
+  </si>
+  <si>
+    <t>acct_checkwaterdetail</t>
+  </si>
+  <si>
+    <t>acct_fundtype</t>
+  </si>
+  <si>
+    <t>acct_password</t>
+  </si>
+  <si>
+    <t>passType</t>
+  </si>
+  <si>
+    <t>密码类型</t>
+  </si>
+  <si>
+    <t>创建人类型</t>
+  </si>
+  <si>
+    <t>更新人类型</t>
+  </si>
+  <si>
+    <t>状态，是否有效</t>
+  </si>
+  <si>
+    <t>acct_passwordlog</t>
+  </si>
+  <si>
+    <t>acct_refund_alipay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支付类型。默认值为：1（商品 购买                   </t>
+  </si>
+  <si>
+    <t>acct_refund_weixin</t>
+  </si>
+  <si>
+    <t>refund_channel</t>
+  </si>
+  <si>
+    <t>退款渠道</t>
+  </si>
+  <si>
+    <t>acct_speciallist</t>
+  </si>
+  <si>
+    <t>udpateByType</t>
+  </si>
+  <si>
+    <t>blackType</t>
+  </si>
+  <si>
+    <t>黑名单类型</t>
+  </si>
+  <si>
+    <t>acct_thridrefund</t>
+  </si>
+  <si>
+    <t>refundChannel</t>
+  </si>
+  <si>
+    <t>状态 1有效，0无效</t>
+  </si>
+  <si>
+    <t>acct_tradelog</t>
+  </si>
+  <si>
+    <t>业务类型 详见业务类型表</t>
+  </si>
+  <si>
+    <t>操作渠道  租客APP：0 ， 房东APP：1，房东PC：2 ，bs系统：3</t>
+  </si>
+  <si>
+    <t>useFund</t>
+  </si>
+  <si>
+    <t>acct_tradelog_alipay</t>
+  </si>
+  <si>
+    <t>固定取值为 RSA</t>
+  </si>
+  <si>
+    <t>trade_status</t>
+  </si>
+  <si>
+    <t>取值范围请参见“11.4 退款状 态”</t>
+  </si>
+  <si>
+    <t>acct_tradelog_unionpay</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>支付状态。1:初始状态。2：支付成功。3:撤销支付成功。</t>
+  </si>
+  <si>
+    <t>支付状态(1:初始状态 2:支付成功 3:撤销支付成功)</t>
+  </si>
+  <si>
+    <t>acct_tradelog_unionpay_refund</t>
+  </si>
+  <si>
+    <t>退款状态：0初始，1成功</t>
+  </si>
+  <si>
+    <t>退款状态(0:初始 1:成功)</t>
+  </si>
+  <si>
+    <t>acct_tradelog_weixin</t>
+  </si>
+  <si>
+    <t>acct_withdrawschedule</t>
+  </si>
+  <si>
+    <t>状态(0:无效数据,1:有效数据,2重新支付)</t>
+  </si>
+  <si>
+    <t>reqsts</t>
+  </si>
+  <si>
+    <t>流程状态（AUT:等待审批 NTE:终审完毕 WCF:订单待确认 BNK:银行处理中 FIN:完成 ACK:等待确认APD :待银行确认 OPR:数据接收中）</t>
+  </si>
+  <si>
+    <t>rtnflg</t>
+  </si>
+  <si>
+    <t>处理状态（S：银行支付成功 F:银行支付失败 B:银行支付被退票 R:企业审批否决 D:企业过期不审批 C:企业撤销 M:商户撤销订单 V:委托贷款被借款方拒绝）</t>
+  </si>
+  <si>
     <t>业务类型(参考comm_busitype表)</t>
-  </si>
-  <si>
-    <t>创建人类型。参考字段表useType。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态，0无效，1有效</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态（0:无效 1:有效）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>创建人类型(参考字典表组名:useType)</t>
-  </si>
-  <si>
-    <t>操作渠道。参考字典表。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人类型</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>操作渠道(参考字典表组名:channel)</t>
-  </si>
-  <si>
-    <t>acct_billdtl_chghistory</t>
-  </si>
-  <si>
-    <t>acct_billdtltype</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>0无效1有效</t>
-  </si>
-  <si>
-    <t>usageType</t>
-  </si>
-  <si>
-    <t>0,1,2</t>
-  </si>
-  <si>
-    <t>使用类型。0:固定类型、1：一般自定义费用类型、2:自定义押金费用类型</t>
-  </si>
-  <si>
-    <t>使用类型(0:固定类型 1：一般自定义费用类型 2:自定义押金费用类型)</t>
-  </si>
-  <si>
-    <t>acct_billtype</t>
-  </si>
-  <si>
-    <t>acct_busifeedtl</t>
-  </si>
-  <si>
-    <t>acct_busirec</t>
-  </si>
-  <si>
-    <t>操作人类型</t>
-  </si>
-  <si>
-    <t>acct_check</t>
-  </si>
-  <si>
-    <t>updateBy</t>
-  </si>
-  <si>
-    <t>更新人</t>
-  </si>
-  <si>
-    <t>verified</t>
-  </si>
-  <si>
-    <t>修改之后是否已经审核</t>
-  </si>
-  <si>
-    <t>付款渠道</t>
-  </si>
-  <si>
-    <t>checkType</t>
-  </si>
-  <si>
-    <t>对账类型 余额 资金 业务</t>
-  </si>
-  <si>
-    <t>acct_checkacctfunddetail</t>
-  </si>
-  <si>
-    <t>是否已经审核</t>
-  </si>
-  <si>
-    <t>fixed</t>
-  </si>
-  <si>
-    <t>是否已经处理</t>
-  </si>
-  <si>
-    <t>errorType</t>
-  </si>
-  <si>
-    <t>余额错误类型</t>
-  </si>
-  <si>
-    <t>acct_checkbillfunddetail</t>
-  </si>
-  <si>
-    <t>acct_checkbilltradedetail</t>
-  </si>
-  <si>
-    <t>acct_checkbizdetail</t>
-  </si>
-  <si>
-    <t>acct_checktradedetail</t>
-  </si>
-  <si>
-    <t>acct_checkwaterdetail</t>
-  </si>
-  <si>
-    <t>acct_fundtype</t>
-  </si>
-  <si>
-    <t>acct_password</t>
-  </si>
-  <si>
-    <t>passType</t>
-  </si>
-  <si>
-    <t>密码类型</t>
-  </si>
-  <si>
-    <t>创建人类型</t>
-  </si>
-  <si>
-    <t>更新人类型</t>
-  </si>
-  <si>
-    <t>状态，是否有效</t>
-  </si>
-  <si>
-    <t>acct_passwordlog</t>
-  </si>
-  <si>
-    <t>acct_refund_alipay</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态(0:无效 1:有效)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态(0:无效 1:有效)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类型(参考comm_busitype表)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人类型</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人类型(参考字典表组名:useType)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>状态(0:无效数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1:有效数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2重新支付)</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未退款 1：退款完成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款状态(0:未退款 1：退款完成)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作渠道(参考字典表组名:channel)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金渠道 支付宝：1,，微信：2，维金：3，余额：4</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金渠道(1:快钱 2:支付宝 3:微信 5:拉卡拉 6:余额 7:现金)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用资金 1:是 0：不是</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否使用资金(1:是 0：不是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人类型 租客：0 ，房东：1，MOGO员工：2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人类型(参考字典表组名:useType)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0原始状态，1支付完成，2支付撤销</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态（0:原始状态 1:支付完成 2:支付撤销 3:收款中）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>签名类型（RSA:RSA MD5:MD5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币类型，符合ISO4217标准的三位字母代码，默认人民币：CNY</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币类型(参考微信API)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEE类型(参考微信API)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行类型</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行类型(参考微信API)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSAPI、NATIVE、APP</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口类型（JSAPI:JSAPI NATIVE：本地 APP：APP）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCCESS/FAIL</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回结果（SUCCESS:成功 FAIL:失败）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回标志（SUCCESS:成功 FAIL:失败）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款状态（参考支付宝API）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付类型。默认值为：1（商品 购买）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易状态，取值范围请参见 “11.3 交易状态”</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付类型（1:商品购买）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易状态（参考支付宝API）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知类型（参考支付宝API）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款渠道</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人类型(参考字典表组名:useType)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金渠道(1:快钱 2:支付宝 3:微信 5:拉卡拉 6:余额 7:现金)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款渠道(1:快钱 2:支付宝 3:微信 5:拉卡拉 6:余额 7:现金)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单金额货币种类</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单金额货币种类（参考微信API）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款状态（参考支付宝API）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款状态（参考支付宝API）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>通知的类型   业务类型</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知的类型（参考支付宝API）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">固定取值为 RSA   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">支付类型。默认值为：1（商品 购买                   </t>
-  </si>
-  <si>
-    <t>acct_refund_weixin</t>
-  </si>
-  <si>
-    <t>refund_channel</t>
-  </si>
-  <si>
-    <t>退款渠道</t>
-  </si>
-  <si>
-    <t>订单金额货币种类</t>
-  </si>
-  <si>
-    <t>acct_speciallist</t>
-  </si>
-  <si>
-    <t>udpateByType</t>
-  </si>
-  <si>
-    <t>blackType</t>
-  </si>
-  <si>
-    <t>黑名单类型</t>
-  </si>
-  <si>
-    <t>acct_thridrefund</t>
-  </si>
-  <si>
-    <t>refundChannel</t>
-  </si>
-  <si>
-    <t>状态 1有效，0无效</t>
-  </si>
-  <si>
-    <t>0:未退款 1：退款完成</t>
-  </si>
-  <si>
-    <t>acct_tradelog</t>
-  </si>
-  <si>
-    <t>业务类型 详见业务类型表</t>
-  </si>
-  <si>
-    <t>操作渠道  租客APP：0 ， 房东APP：1，房东PC：2 ，bs系统：3</t>
-  </si>
-  <si>
-    <t>资金渠道 支付宝：1,，微信：2，维金：3，余额：4</t>
-  </si>
-  <si>
-    <t>useFund</t>
-  </si>
-  <si>
-    <t>是否使用资金 1:是 0：不是</t>
-  </si>
-  <si>
-    <t>创建人类型 租客：0 ，房东：1，MOGO员工：2</t>
-  </si>
-  <si>
-    <t>0原始状态，1支付完成，2支付撤销</t>
-  </si>
-  <si>
-    <t>acct_tradelog_alipay</t>
-  </si>
-  <si>
-    <t>固定取值为 RSA</t>
-  </si>
-  <si>
-    <t>trade_status</t>
-  </si>
-  <si>
-    <t>交易状态，取值范围请参见 “11.3 交易状态”</t>
-  </si>
-  <si>
-    <t>取值范围请参见“11.4 退款状 态”</t>
-  </si>
-  <si>
-    <t>acct_tradelog_unionpay</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>支付状态。1:初始状态。2：支付成功。3:撤销支付成功。</t>
-  </si>
-  <si>
-    <t>支付状态(1:初始状态 2:支付成功 3:撤销支付成功)</t>
-  </si>
-  <si>
-    <t>acct_tradelog_unionpay_refund</t>
-  </si>
-  <si>
-    <t>退款状态：0初始，1成功</t>
-  </si>
-  <si>
-    <t>退款状态(0:初始 1:成功)</t>
-  </si>
-  <si>
-    <t>acct_tradelog_weixin</t>
-  </si>
-  <si>
-    <t>acct_withdrawschedule</t>
-  </si>
-  <si>
-    <t>状态(0:无效数据,1:有效数据,2重新支付)</t>
-  </si>
-  <si>
-    <t>收款人类型</t>
-  </si>
-  <si>
-    <t>reqsts</t>
-  </si>
-  <si>
-    <t>流程状态（AUT:等待审批 NTE:终审完毕 WCF:订单待确认 BNK:银行处理中 FIN:完成 ACK:等待确认APD :待银行确认 OPR:数据接收中）</t>
-  </si>
-  <si>
-    <t>rtnflg</t>
-  </si>
-  <si>
-    <t>处理状态（S：银行支付成功 F:银行支付失败 B:银行支付被退票 R:企业审批否决 D:企业过期不审批 C:企业撤销 M:商户撤销订单 V:委托贷款被借款方拒绝）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名类型（RSA:RSA MD5:MD5）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7788,143 +8025,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -7937,13 +8037,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7962,188 +8070,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -8166,330 +8094,91 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="68">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="67">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8498,38 +8187,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="49" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -8550,97 +8239,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="2"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -8651,6 +8296,15 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -8940,15 +8594,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.375" style="20" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="20" customWidth="1"/>
@@ -8961,7 +8614,7 @@
     <col min="9" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="7" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8987,7 +8640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
@@ -9008,7 +8661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:7">
+    <row r="3" spans="1:8" ht="27">
       <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
@@ -9031,7 +8684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
@@ -9054,7 +8707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:7">
+    <row r="5" spans="1:8" ht="27">
       <c r="A5" s="22" t="s">
         <v>25</v>
       </c>
@@ -9075,7 +8728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="22" t="s">
         <v>25</v>
       </c>
@@ -9096,7 +8749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="22" t="s">
         <v>25</v>
       </c>
@@ -9117,7 +8770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="22" t="s">
         <v>29</v>
       </c>
@@ -9140,7 +8793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="22" t="s">
         <v>29</v>
       </c>
@@ -9163,7 +8816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="22" t="s">
         <v>36</v>
       </c>
@@ -9186,7 +8839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="22" t="s">
         <v>38</v>
       </c>
@@ -9209,7 +8862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="22" t="s">
         <v>43</v>
       </c>
@@ -9232,7 +8885,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="22" t="s">
         <v>43</v>
       </c>
@@ -9255,7 +8908,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="22" t="s">
         <v>50</v>
       </c>
@@ -9278,7 +8931,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" ht="40.5" spans="1:7">
+    <row r="15" spans="1:8" ht="40.5">
       <c r="A15" s="22" t="s">
         <v>56</v>
       </c>
@@ -9301,7 +8954,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="22" t="s">
         <v>61</v>
       </c>
@@ -9385,7 +9038,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" s="16" customFormat="1" spans="1:7">
+    <row r="20" spans="1:7" s="16" customFormat="1">
       <c r="A20" s="29" t="s">
         <v>71</v>
       </c>
@@ -9408,7 +9061,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" s="16" customFormat="1" ht="40.5" spans="1:7">
+    <row r="21" spans="1:7" s="16" customFormat="1" ht="40.5">
       <c r="A21" s="29" t="s">
         <v>71</v>
       </c>
@@ -9431,7 +9084,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" s="16" customFormat="1" spans="1:7">
+    <row r="22" spans="1:7" s="16" customFormat="1">
       <c r="A22" s="29" t="s">
         <v>71</v>
       </c>
@@ -9454,7 +9107,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" s="16" customFormat="1" ht="40.5" spans="1:7">
+    <row r="23" spans="1:7" s="16" customFormat="1" ht="40.5">
       <c r="A23" s="29" t="s">
         <v>71</v>
       </c>
@@ -9477,7 +9130,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" s="16" customFormat="1" spans="1:7">
+    <row r="24" spans="1:7" s="16" customFormat="1">
       <c r="A24" s="29" t="s">
         <v>71</v>
       </c>
@@ -9500,7 +9153,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" s="16" customFormat="1" spans="1:7">
+    <row r="25" spans="1:7" s="16" customFormat="1">
       <c r="A25" s="29" t="s">
         <v>71</v>
       </c>
@@ -9523,7 +9176,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" s="16" customFormat="1" ht="27" spans="1:7">
+    <row r="26" spans="1:7" s="16" customFormat="1" ht="27">
       <c r="A26" s="29" t="s">
         <v>71</v>
       </c>
@@ -9546,7 +9199,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" s="16" customFormat="1" ht="27" spans="1:7">
+    <row r="27" spans="1:7" s="16" customFormat="1" ht="27">
       <c r="A27" s="29" t="s">
         <v>71</v>
       </c>
@@ -9569,7 +9222,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" s="16" customFormat="1" spans="1:7">
+    <row r="28" spans="1:7" s="16" customFormat="1">
       <c r="A28" s="29" t="s">
         <v>99</v>
       </c>
@@ -9592,7 +9245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" s="16" customFormat="1" spans="1:7">
+    <row r="29" spans="1:7" s="16" customFormat="1">
       <c r="A29" s="29" t="s">
         <v>99</v>
       </c>
@@ -9615,7 +9268,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" s="16" customFormat="1" ht="27" spans="1:7">
+    <row r="30" spans="1:7" s="16" customFormat="1" ht="27">
       <c r="A30" s="29" t="s">
         <v>99</v>
       </c>
@@ -9638,7 +9291,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" s="16" customFormat="1" ht="27" spans="1:7">
+    <row r="31" spans="1:7" s="16" customFormat="1" ht="27">
       <c r="A31" s="29" t="s">
         <v>99</v>
       </c>
@@ -9661,7 +9314,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="409.6">
       <c r="A32" s="34" t="s">
         <v>109</v>
       </c>
@@ -9684,7 +9337,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" ht="27" spans="1:7">
+    <row r="33" spans="1:7" ht="27">
       <c r="A33" s="34" t="s">
         <v>109</v>
       </c>
@@ -9707,7 +9360,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" ht="229.5" spans="1:7">
+    <row r="34" spans="1:7" ht="229.5">
       <c r="A34" s="22" t="s">
         <v>109</v>
       </c>
@@ -9730,7 +9383,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="409.6">
       <c r="A35" s="22" t="s">
         <v>109</v>
       </c>
@@ -9753,7 +9406,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" ht="27" spans="1:7">
+    <row r="36" spans="1:7" ht="27">
       <c r="A36" s="22" t="s">
         <v>125</v>
       </c>
@@ -9776,7 +9429,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="409.6">
       <c r="A37" s="22" t="s">
         <v>125</v>
       </c>
@@ -9799,7 +9452,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="409.6">
       <c r="A38" s="22" t="s">
         <v>125</v>
       </c>
@@ -9822,7 +9475,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="409.6">
       <c r="A39" s="22" t="s">
         <v>136</v>
       </c>
@@ -9845,7 +9498,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" s="17" customFormat="1" spans="1:7">
+    <row r="40" spans="1:7" s="17" customFormat="1" ht="409.6">
       <c r="A40" s="37" t="s">
         <v>136</v>
       </c>
@@ -9866,7 +9519,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" ht="409.6">
       <c r="A41" s="22" t="s">
         <v>136</v>
       </c>
@@ -9889,7 +9542,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="409.6">
       <c r="A42" s="22" t="s">
         <v>136</v>
       </c>
@@ -9912,7 +9565,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="409.6">
       <c r="A43" s="22" t="s">
         <v>136</v>
       </c>
@@ -9935,7 +9588,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="409.6">
       <c r="A44" s="34" t="s">
         <v>136</v>
       </c>
@@ -9958,7 +9611,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" ht="409.6">
       <c r="A45" s="22" t="s">
         <v>136</v>
       </c>
@@ -9981,7 +9634,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="409.6">
       <c r="A46" s="22" t="s">
         <v>158</v>
       </c>
@@ -10004,7 +9657,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="409.6">
       <c r="A47" s="22" t="s">
         <v>158</v>
       </c>
@@ -10027,7 +9680,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="409.6">
       <c r="A48" s="22" t="s">
         <v>158</v>
       </c>
@@ -10050,7 +9703,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8" ht="409.6">
       <c r="A49" s="22" t="s">
         <v>165</v>
       </c>
@@ -10071,7 +9724,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8" ht="409.6">
       <c r="A50" s="22" t="s">
         <v>165</v>
       </c>
@@ -10092,7 +9745,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" s="16" customFormat="1" spans="1:8">
+    <row r="51" spans="1:8" s="16" customFormat="1" ht="409.6">
       <c r="A51" s="29" t="s">
         <v>171</v>
       </c>
@@ -10116,7 +9769,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" s="16" customFormat="1" spans="1:8">
+    <row r="52" spans="1:8" s="16" customFormat="1" ht="409.6">
       <c r="A52" s="29" t="s">
         <v>171</v>
       </c>
@@ -10140,7 +9793,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" ht="409.6">
       <c r="A53" s="41" t="s">
         <v>177</v>
       </c>
@@ -10164,7 +9817,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8" ht="409.6">
       <c r="A54" s="22" t="s">
         <v>177</v>
       </c>
@@ -10187,7 +9840,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1" spans="1:7">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="A55" s="22" t="s">
         <v>186</v>
       </c>
@@ -10208,7 +9861,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8" ht="409.6">
       <c r="A56" s="22" t="s">
         <v>186</v>
       </c>
@@ -10229,7 +9882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" ht="27" spans="1:7">
+    <row r="57" spans="1:8" ht="27">
       <c r="A57" s="22" t="s">
         <v>186</v>
       </c>
@@ -10250,7 +9903,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="58" ht="27" spans="1:7">
+    <row r="58" spans="1:8" ht="27">
       <c r="A58" s="22" t="s">
         <v>186</v>
       </c>
@@ -10271,7 +9924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8" ht="409.6">
       <c r="A59" s="22" t="s">
         <v>195</v>
       </c>
@@ -10292,7 +9945,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8" ht="409.6">
       <c r="A60" s="22" t="s">
         <v>195</v>
       </c>
@@ -10313,7 +9966,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" ht="27" spans="1:7">
+    <row r="61" spans="1:8" ht="27">
       <c r="A61" s="22" t="s">
         <v>195</v>
       </c>
@@ -10334,7 +9987,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" ht="27" spans="1:7">
+    <row r="62" spans="1:8" ht="27">
       <c r="A62" s="22" t="s">
         <v>195</v>
       </c>
@@ -10355,7 +10008,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8" ht="409.6">
       <c r="A63" s="22" t="s">
         <v>198</v>
       </c>
@@ -10376,7 +10029,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" ht="27" spans="1:7">
+    <row r="64" spans="1:8" ht="27">
       <c r="A64" s="22" t="s">
         <v>198</v>
       </c>
@@ -10397,7 +10050,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" ht="27" spans="1:7">
+    <row r="65" spans="1:7" ht="27">
       <c r="A65" s="22" t="s">
         <v>198</v>
       </c>
@@ -10418,7 +10071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" ht="409.6">
       <c r="A66" s="22" t="s">
         <v>199</v>
       </c>
@@ -10441,7 +10094,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" ht="409.6">
       <c r="A67" s="22" t="s">
         <v>199</v>
       </c>
@@ -10464,7 +10117,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" ht="81" spans="1:7">
+    <row r="68" spans="1:7" ht="81">
       <c r="A68" s="22" t="s">
         <v>199</v>
       </c>
@@ -10487,7 +10140,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" ht="27" spans="1:7">
+    <row r="69" spans="1:7" ht="27">
       <c r="A69" s="22" t="s">
         <v>199</v>
       </c>
@@ -10510,7 +10163,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" ht="409.6">
       <c r="A70" s="22" t="s">
         <v>199</v>
       </c>
@@ -10533,7 +10186,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" ht="27" spans="1:7">
+    <row r="71" spans="1:7" ht="27">
       <c r="A71" s="22" t="s">
         <v>217</v>
       </c>
@@ -10554,7 +10207,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" ht="409.6">
       <c r="A72" s="22" t="s">
         <v>217</v>
       </c>
@@ -10575,7 +10228,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" ht="27" spans="1:7">
+    <row r="73" spans="1:7" ht="27">
       <c r="A73" s="22" t="s">
         <v>217</v>
       </c>
@@ -10596,7 +10249,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" ht="27" spans="1:7">
+    <row r="74" spans="1:7" ht="27">
       <c r="A74" s="22" t="s">
         <v>217</v>
       </c>
@@ -10617,7 +10270,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" ht="27" spans="1:7">
+    <row r="75" spans="1:7" ht="27">
       <c r="A75" s="22" t="s">
         <v>223</v>
       </c>
@@ -10640,7 +10293,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" ht="27" spans="1:7">
+    <row r="76" spans="1:7" ht="27">
       <c r="A76" s="22" t="s">
         <v>223</v>
       </c>
@@ -10663,7 +10316,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" ht="409.6">
       <c r="A77" s="22" t="s">
         <v>233</v>
       </c>
@@ -10684,7 +10337,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="78" ht="27" spans="1:7">
+    <row r="78" spans="1:7" ht="27">
       <c r="A78" s="22" t="s">
         <v>233</v>
       </c>
@@ -10705,7 +10358,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="79" ht="54" spans="1:7">
+    <row r="79" spans="1:7" ht="54">
       <c r="A79" s="22" t="s">
         <v>233</v>
       </c>
@@ -10726,7 +10379,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="80" ht="27" spans="1:7">
+    <row r="80" spans="1:7" ht="27">
       <c r="A80" s="22" t="s">
         <v>233</v>
       </c>
@@ -10747,7 +10400,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" ht="409.6">
       <c r="A81" s="22" t="s">
         <v>233</v>
       </c>
@@ -10768,7 +10421,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="82" s="16" customFormat="1" spans="1:7">
+    <row r="82" spans="1:7" s="16" customFormat="1" ht="409.6">
       <c r="A82" s="29" t="s">
         <v>238</v>
       </c>
@@ -10789,7 +10442,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" s="16" customFormat="1" spans="1:7">
+    <row r="83" spans="1:7" s="16" customFormat="1" ht="409.6">
       <c r="A83" s="29" t="s">
         <v>238</v>
       </c>
@@ -10810,7 +10463,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="84" s="16" customFormat="1" ht="27" spans="1:7">
+    <row r="84" spans="1:7" s="16" customFormat="1" ht="27">
       <c r="A84" s="29" t="s">
         <v>245</v>
       </c>
@@ -10833,7 +10486,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="85" s="16" customFormat="1" ht="40.5" spans="1:7">
+    <row r="85" spans="1:7" s="16" customFormat="1" ht="40.5">
       <c r="A85" s="29" t="s">
         <v>245</v>
       </c>
@@ -10856,7 +10509,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" ht="409.6">
       <c r="A86" s="22" t="s">
         <v>253</v>
       </c>
@@ -10879,7 +10532,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" ht="409.6">
       <c r="A87" s="22" t="s">
         <v>256</v>
       </c>
@@ -10902,7 +10555,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" ht="409.6">
       <c r="A88" s="22" t="s">
         <v>258</v>
       </c>
@@ -10923,7 +10576,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" ht="409.6">
       <c r="A89" s="22" t="s">
         <v>258</v>
       </c>
@@ -10944,7 +10597,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" ht="409.6">
       <c r="A90" s="22" t="s">
         <v>261</v>
       </c>
@@ -10967,7 +10620,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" ht="40.5" spans="1:7">
+    <row r="91" spans="1:7" ht="40.5">
       <c r="A91" s="22" t="s">
         <v>261</v>
       </c>
@@ -10990,7 +10643,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" ht="409.6">
       <c r="A92" s="22" t="s">
         <v>261</v>
       </c>
@@ -11013,7 +10666,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="93" ht="27" spans="1:7">
+    <row r="93" spans="1:7" ht="27">
       <c r="A93" s="22" t="s">
         <v>271</v>
       </c>
@@ -11034,7 +10687,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="94" ht="27" spans="1:7">
+    <row r="94" spans="1:7" ht="27">
       <c r="A94" s="22" t="s">
         <v>275</v>
       </c>
@@ -11057,7 +10710,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" ht="409.6">
       <c r="A95" s="22" t="s">
         <v>278</v>
       </c>
@@ -11080,7 +10733,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" ht="409.6">
       <c r="A96" s="22" t="s">
         <v>278</v>
       </c>
@@ -11103,7 +10756,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="97" s="17" customFormat="1" spans="1:7">
+    <row r="97" spans="1:7" s="17" customFormat="1" ht="409.6">
       <c r="A97" s="37" t="s">
         <v>284</v>
       </c>
@@ -11126,7 +10779,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" ht="409.6">
       <c r="A98" s="22" t="s">
         <v>284</v>
       </c>
@@ -11149,7 +10802,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" ht="409.6">
       <c r="A99" s="22" t="s">
         <v>284</v>
       </c>
@@ -11172,7 +10825,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" ht="409.6">
       <c r="A100" s="22" t="s">
         <v>284</v>
       </c>
@@ -11195,7 +10848,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" ht="409.6">
       <c r="A101" s="22" t="s">
         <v>299</v>
       </c>
@@ -11218,7 +10871,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" s="17" customFormat="1" spans="1:7">
+    <row r="102" spans="1:7" s="17" customFormat="1" ht="409.6">
       <c r="A102" s="37" t="s">
         <v>299</v>
       </c>
@@ -11241,7 +10894,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="103" s="17" customFormat="1" spans="1:7">
+    <row r="103" spans="1:7" s="17" customFormat="1" ht="409.6">
       <c r="A103" s="37" t="s">
         <v>299</v>
       </c>
@@ -11264,7 +10917,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" ht="409.6">
       <c r="A104" s="22" t="s">
         <v>305</v>
       </c>
@@ -11287,7 +10940,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" s="17" customFormat="1" spans="1:7">
+    <row r="105" spans="1:7" s="17" customFormat="1" ht="409.6">
       <c r="A105" s="37" t="s">
         <v>310</v>
       </c>
@@ -11310,7 +10963,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" ht="409.6">
       <c r="A106" s="22" t="s">
         <v>310</v>
       </c>
@@ -11333,7 +10986,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" ht="409.6">
       <c r="A107" s="22" t="s">
         <v>310</v>
       </c>
@@ -11356,7 +11009,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="108" s="17" customFormat="1" spans="1:7">
+    <row r="108" spans="1:7" s="17" customFormat="1" ht="409.6">
       <c r="A108" s="37" t="s">
         <v>314</v>
       </c>
@@ -11379,7 +11032,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="109" s="18" customFormat="1" spans="1:7">
+    <row r="109" spans="1:7" s="18" customFormat="1" ht="409.6">
       <c r="A109" s="18" t="s">
         <v>317</v>
       </c>
@@ -11402,7 +11055,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" ht="409.6">
       <c r="A110" s="22" t="s">
         <v>317</v>
       </c>
@@ -11425,7 +11078,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="111" ht="202.5" spans="1:7">
+    <row r="111" spans="1:7" ht="202.5">
       <c r="A111" s="22" t="s">
         <v>317</v>
       </c>
@@ -11446,7 +11099,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" ht="409.6">
       <c r="A112" s="22" t="s">
         <v>317</v>
       </c>
@@ -11469,7 +11122,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="113" s="17" customFormat="1" spans="1:7">
+    <row r="113" spans="1:7" s="17" customFormat="1" ht="409.6">
       <c r="A113" s="37" t="s">
         <v>327</v>
       </c>
@@ -11492,7 +11145,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" ht="409.6">
       <c r="A114" s="22" t="s">
         <v>330</v>
       </c>
@@ -11515,7 +11168,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" ht="409.6">
       <c r="A115" s="22" t="s">
         <v>330</v>
       </c>
@@ -11538,7 +11191,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" ht="409.6">
       <c r="A116" s="22" t="s">
         <v>335</v>
       </c>
@@ -11561,7 +11214,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="117" ht="27" spans="1:7">
+    <row r="117" spans="1:7" ht="27">
       <c r="A117" s="22" t="s">
         <v>335</v>
       </c>
@@ -11584,7 +11237,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" ht="409.6">
       <c r="A118" s="22" t="s">
         <v>335</v>
       </c>
@@ -11607,7 +11260,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" ht="409.6">
       <c r="A119" s="22" t="s">
         <v>345</v>
       </c>
@@ -11630,7 +11283,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" ht="409.6">
       <c r="A120" s="22" t="s">
         <v>345</v>
       </c>
@@ -11653,7 +11306,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" ht="409.6">
       <c r="A121" s="22" t="s">
         <v>345</v>
       </c>
@@ -11676,7 +11329,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" ht="409.6">
       <c r="A122" s="22" t="s">
         <v>345</v>
       </c>
@@ -11699,7 +11352,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" ht="409.6">
       <c r="A123" s="22" t="s">
         <v>345</v>
       </c>
@@ -11722,7 +11375,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" ht="409.6">
       <c r="A124" s="22" t="s">
         <v>345</v>
       </c>
@@ -11745,7 +11398,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" ht="409.6">
       <c r="A125" s="22" t="s">
         <v>345</v>
       </c>
@@ -11768,7 +11421,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="126" ht="40.5" spans="1:7">
+    <row r="126" spans="1:7" ht="40.5">
       <c r="A126" s="22" t="s">
         <v>345</v>
       </c>
@@ -11791,7 +11444,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" ht="27" spans="1:7">
+    <row r="127" spans="1:7" ht="27">
       <c r="A127" s="22" t="s">
         <v>345</v>
       </c>
@@ -11814,7 +11467,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="128" ht="27" spans="1:7">
+    <row r="128" spans="1:7" ht="27">
       <c r="A128" s="22" t="s">
         <v>345</v>
       </c>
@@ -11837,7 +11490,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8" ht="409.6">
       <c r="A129" s="22" t="s">
         <v>345</v>
       </c>
@@ -11860,7 +11513,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:8" ht="409.6">
       <c r="A130" s="22" t="s">
         <v>379</v>
       </c>
@@ -11883,7 +11536,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" ht="409.6">
       <c r="A131" s="41" t="s">
         <v>379</v>
       </c>
@@ -11907,7 +11560,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:8" ht="409.6">
       <c r="A132" s="22" t="s">
         <v>379</v>
       </c>
@@ -11930,7 +11583,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:8" ht="409.6">
       <c r="A133" s="22" t="s">
         <v>379</v>
       </c>
@@ -11953,7 +11606,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:8" ht="409.6">
       <c r="A134" s="22" t="s">
         <v>379</v>
       </c>
@@ -11976,7 +11629,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8" ht="409.6">
       <c r="A135" s="22" t="s">
         <v>379</v>
       </c>
@@ -11999,7 +11652,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:8" ht="409.6">
       <c r="A136" s="22" t="s">
         <v>379</v>
       </c>
@@ -12022,7 +11675,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="137" ht="27" spans="1:7">
+    <row r="137" spans="1:8" ht="27">
       <c r="A137" s="22" t="s">
         <v>379</v>
       </c>
@@ -12045,7 +11698,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="138" ht="27" spans="1:7">
+    <row r="138" spans="1:8" ht="27">
       <c r="A138" s="22" t="s">
         <v>379</v>
       </c>
@@ -12068,7 +11721,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="139" ht="27" spans="1:7">
+    <row r="139" spans="1:8" ht="27">
       <c r="A139" s="22" t="s">
         <v>379</v>
       </c>
@@ -12091,7 +11744,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8" ht="409.6">
       <c r="A140" s="22" t="s">
         <v>379</v>
       </c>
@@ -12114,7 +11767,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:8" ht="409.6">
       <c r="A141" s="22" t="s">
         <v>394</v>
       </c>
@@ -12137,7 +11790,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:8" ht="409.6">
       <c r="A142" s="22" t="s">
         <v>397</v>
       </c>
@@ -12160,7 +11813,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:8" ht="409.6">
       <c r="A143" s="22" t="s">
         <v>397</v>
       </c>
@@ -12183,7 +11836,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="144" ht="27" spans="1:7">
+    <row r="144" spans="1:8" ht="27">
       <c r="A144" s="22" t="s">
         <v>397</v>
       </c>
@@ -12206,7 +11859,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" ht="409.6">
       <c r="A145" s="22" t="s">
         <v>404</v>
       </c>
@@ -12229,7 +11882,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" ht="409.6">
       <c r="A146" s="22" t="s">
         <v>404</v>
       </c>
@@ -12252,7 +11905,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="147" ht="27" spans="1:7">
+    <row r="147" spans="1:7" ht="27">
       <c r="A147" s="22" t="s">
         <v>411</v>
       </c>
@@ -12275,7 +11928,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" ht="409.6">
       <c r="A148" s="22" t="s">
         <v>411</v>
       </c>
@@ -12298,7 +11951,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="149" ht="27" spans="1:7">
+    <row r="149" spans="1:7" ht="27">
       <c r="A149" s="22" t="s">
         <v>418</v>
       </c>
@@ -12321,7 +11974,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" ht="409.6">
       <c r="A150" s="22" t="s">
         <v>418</v>
       </c>
@@ -12344,7 +11997,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="151" ht="27" spans="1:7">
+    <row r="151" spans="1:7" ht="27">
       <c r="A151" s="22" t="s">
         <v>418</v>
       </c>
@@ -12367,7 +12020,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" ht="409.6">
       <c r="A152" s="22" t="s">
         <v>418</v>
       </c>
@@ -12390,7 +12043,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="153" ht="40.5" spans="1:7">
+    <row r="153" spans="1:7" ht="40.5">
       <c r="A153" s="22" t="s">
         <v>418</v>
       </c>
@@ -12413,7 +12066,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="154" ht="27" spans="1:7">
+    <row r="154" spans="1:7" ht="27">
       <c r="A154" s="22" t="s">
         <v>418</v>
       </c>
@@ -12436,7 +12089,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="155" ht="27" spans="1:7">
+    <row r="155" spans="1:7" ht="27">
       <c r="A155" s="22" t="s">
         <v>418</v>
       </c>
@@ -12459,7 +12112,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" ht="409.6">
       <c r="A156" s="22" t="s">
         <v>418</v>
       </c>
@@ -12482,7 +12135,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="157" ht="27" spans="1:7">
+    <row r="157" spans="1:7" ht="27">
       <c r="A157" s="22" t="s">
         <v>438</v>
       </c>
@@ -12505,7 +12158,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="158" ht="27" spans="1:7">
+    <row r="158" spans="1:7" ht="27">
       <c r="A158" s="22" t="s">
         <v>438</v>
       </c>
@@ -12528,7 +12181,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" ht="409.6">
       <c r="A159" s="22" t="s">
         <v>445</v>
       </c>
@@ -12551,7 +12204,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" ht="409.6">
       <c r="A160" s="22" t="s">
         <v>445</v>
       </c>
@@ -12574,7 +12227,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" ht="409.6">
       <c r="A161" s="22" t="s">
         <v>454</v>
       </c>
@@ -12597,7 +12250,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="162" ht="27" spans="1:7">
+    <row r="162" spans="1:7" ht="27">
       <c r="A162" s="22" t="s">
         <v>454</v>
       </c>
@@ -12620,7 +12273,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" ht="409.6">
       <c r="A163" s="22" t="s">
         <v>454</v>
       </c>
@@ -12643,7 +12296,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="164" ht="40.5" spans="1:7">
+    <row r="164" spans="1:7" ht="40.5">
       <c r="A164" s="22" t="s">
         <v>454</v>
       </c>
@@ -12666,7 +12319,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="165" ht="27" spans="1:7">
+    <row r="165" spans="1:7" ht="27">
       <c r="A165" s="22" t="s">
         <v>466</v>
       </c>
@@ -12689,7 +12342,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" ht="409.6">
       <c r="A166" s="22" t="s">
         <v>466</v>
       </c>
@@ -12712,7 +12365,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="167" ht="27" spans="1:7">
+    <row r="167" spans="1:7" ht="27">
       <c r="A167" s="22" t="s">
         <v>466</v>
       </c>
@@ -12735,7 +12388,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" ht="409.6">
       <c r="A168" s="22" t="s">
         <v>466</v>
       </c>
@@ -12758,7 +12411,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="169" ht="27" spans="1:7">
+    <row r="169" spans="1:7" ht="27">
       <c r="A169" s="22" t="s">
         <v>466</v>
       </c>
@@ -12781,7 +12434,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="170" ht="27" spans="1:7">
+    <row r="170" spans="1:7" ht="27">
       <c r="A170" s="22" t="s">
         <v>466</v>
       </c>
@@ -12804,7 +12457,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" ht="409.6">
       <c r="A171" s="22" t="s">
         <v>466</v>
       </c>
@@ -12827,7 +12480,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="172" ht="27" spans="1:7">
+    <row r="172" spans="1:7" ht="27">
       <c r="A172" s="22" t="s">
         <v>471</v>
       </c>
@@ -12850,7 +12503,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="173" ht="27" spans="1:7">
+    <row r="173" spans="1:7" ht="27">
       <c r="A173" s="22" t="s">
         <v>471</v>
       </c>
@@ -12873,7 +12526,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" ht="409.6">
       <c r="A174" s="22" t="s">
         <v>473</v>
       </c>
@@ -12896,7 +12549,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" ht="409.6">
       <c r="A175" s="22" t="s">
         <v>476</v>
       </c>
@@ -12919,7 +12572,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" ht="409.6">
       <c r="A176" s="22" t="s">
         <v>476</v>
       </c>
@@ -12942,7 +12595,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:8" ht="409.6">
       <c r="A177" s="22" t="s">
         <v>482</v>
       </c>
@@ -12961,7 +12614,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:8" ht="409.6">
       <c r="A178" s="22" t="s">
         <v>482</v>
       </c>
@@ -12980,7 +12633,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:8" ht="409.6">
       <c r="A179" s="22" t="s">
         <v>482</v>
       </c>
@@ -12999,7 +12652,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:8" ht="409.6">
       <c r="A180" s="22" t="s">
         <v>482</v>
       </c>
@@ -13018,7 +12671,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:8" ht="409.6">
       <c r="A181" s="22" t="s">
         <v>482</v>
       </c>
@@ -13037,7 +12690,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="182" ht="27" spans="1:7">
+    <row r="182" spans="1:8" ht="27">
       <c r="A182" s="22" t="s">
         <v>489</v>
       </c>
@@ -13058,7 +12711,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:8" ht="409.6">
       <c r="A183" s="22" t="s">
         <v>489</v>
       </c>
@@ -13077,7 +12730,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:8" ht="409.6">
       <c r="A184" s="22" t="s">
         <v>489</v>
       </c>
@@ -13096,7 +12749,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:8" ht="409.6">
       <c r="A185" s="22" t="s">
         <v>489</v>
       </c>
@@ -13115,7 +12768,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:8" ht="409.6">
       <c r="A186" s="22" t="s">
         <v>489</v>
       </c>
@@ -13134,7 +12787,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:8" ht="409.6">
       <c r="A187" s="22" t="s">
         <v>489</v>
       </c>
@@ -13153,7 +12806,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="188" ht="27" spans="1:7">
+    <row r="188" spans="1:8" ht="27">
       <c r="A188" s="22" t="s">
         <v>492</v>
       </c>
@@ -13174,7 +12827,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:8" ht="409.6">
       <c r="A189" s="22" t="s">
         <v>492</v>
       </c>
@@ -13193,7 +12846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" ht="27" spans="1:7">
+    <row r="190" spans="1:8" ht="27">
       <c r="A190" s="22" t="s">
         <v>496</v>
       </c>
@@ -13214,7 +12867,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="191" ht="27" spans="1:7">
+    <row r="191" spans="1:8" ht="27">
       <c r="A191" s="22" t="s">
         <v>496</v>
       </c>
@@ -13235,7 +12888,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" ht="409.6">
       <c r="A192" s="52" t="s">
         <v>502</v>
       </c>
@@ -13257,7 +12910,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="193" ht="27" spans="1:8">
+    <row r="193" spans="1:8" ht="27">
       <c r="A193" s="52" t="s">
         <v>505</v>
       </c>
@@ -13281,7 +12934,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" ht="409.6">
       <c r="A194" s="52" t="s">
         <v>505</v>
       </c>
@@ -13305,7 +12958,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" ht="409.6">
       <c r="A195" s="52" t="s">
         <v>505</v>
       </c>
@@ -13329,7 +12982,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="196" ht="27" spans="1:8">
+    <row r="196" spans="1:8" ht="27">
       <c r="A196" s="52" t="s">
         <v>505</v>
       </c>
@@ -13353,7 +13006,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="197" ht="27" spans="1:8">
+    <row r="197" spans="1:8" ht="27">
       <c r="A197" s="52" t="s">
         <v>505</v>
       </c>
@@ -13377,7 +13030,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" ht="409.6">
       <c r="A198" s="52" t="s">
         <v>505</v>
       </c>
@@ -13401,7 +13054,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" ht="409.6">
       <c r="A199" s="52" t="s">
         <v>505</v>
       </c>
@@ -13425,7 +13078,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" ht="409.6">
       <c r="A200" s="52" t="s">
         <v>505</v>
       </c>
@@ -13449,7 +13102,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" ht="409.6">
       <c r="A201" s="52" t="s">
         <v>505</v>
       </c>
@@ -13473,7 +13126,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" ht="409.6">
       <c r="A202" s="52" t="s">
         <v>505</v>
       </c>
@@ -13497,7 +13150,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:8" ht="409.6">
       <c r="A203" s="22" t="s">
         <v>517</v>
       </c>
@@ -13520,7 +13173,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="204" ht="229.5" spans="1:7">
+    <row r="204" spans="1:8" ht="229.5">
       <c r="A204" s="22" t="s">
         <v>517</v>
       </c>
@@ -13543,7 +13196,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:8" ht="409.6">
       <c r="A205" s="22" t="s">
         <v>517</v>
       </c>
@@ -13566,7 +13219,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="206" ht="27" spans="1:7">
+    <row r="206" spans="1:8" ht="27">
       <c r="A206" s="22" t="s">
         <v>517</v>
       </c>
@@ -13589,7 +13242,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:8" ht="409.6">
       <c r="A207" s="22" t="s">
         <v>517</v>
       </c>
@@ -13612,7 +13265,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:8" ht="409.6">
       <c r="A208" s="22" t="s">
         <v>517</v>
       </c>
@@ -13635,7 +13288,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" ht="409.6">
       <c r="A209" s="22" t="s">
         <v>517</v>
       </c>
@@ -13658,7 +13311,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" ht="409.6">
       <c r="A210" s="22" t="s">
         <v>537</v>
       </c>
@@ -13681,7 +13334,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" ht="409.6">
       <c r="A211" s="22" t="s">
         <v>537</v>
       </c>
@@ -13704,7 +13357,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" ht="409.6">
       <c r="A212" s="22" t="s">
         <v>545</v>
       </c>
@@ -13727,7 +13380,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="213" ht="27" spans="1:7">
+    <row r="213" spans="1:7" ht="27">
       <c r="A213" s="22" t="s">
         <v>546</v>
       </c>
@@ -13750,7 +13403,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" ht="409.6">
       <c r="A214" s="22" t="s">
         <v>546</v>
       </c>
@@ -13773,7 +13426,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" ht="409.6">
       <c r="A215" s="22" t="s">
         <v>546</v>
       </c>
@@ -13796,7 +13449,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" ht="409.6">
       <c r="A216" s="22" t="s">
         <v>546</v>
       </c>
@@ -13819,7 +13472,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="217" ht="27" spans="1:7">
+    <row r="217" spans="1:7" ht="27">
       <c r="A217" s="22" t="s">
         <v>558</v>
       </c>
@@ -13842,7 +13495,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" ht="409.6">
       <c r="A218" s="22" t="s">
         <v>558</v>
       </c>
@@ -13865,7 +13518,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" ht="409.6">
       <c r="A219" s="22" t="s">
         <v>562</v>
       </c>
@@ -13888,7 +13541,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" ht="409.6">
       <c r="A220" s="22" t="s">
         <v>565</v>
       </c>
@@ -13911,7 +13564,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" ht="409.6">
       <c r="A221" s="22" t="s">
         <v>568</v>
       </c>
@@ -13934,7 +13587,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="222" ht="27" spans="1:7">
+    <row r="222" spans="1:7" ht="27">
       <c r="A222" s="22" t="s">
         <v>570</v>
       </c>
@@ -13957,7 +13610,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" ht="409.6">
       <c r="A223" s="22" t="s">
         <v>570</v>
       </c>
@@ -13980,7 +13633,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="224" ht="40.5" spans="1:7">
+    <row r="224" spans="1:7" ht="40.5">
       <c r="A224" s="22" t="s">
         <v>570</v>
       </c>
@@ -14003,7 +13656,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="225" ht="27" spans="1:7">
+    <row r="225" spans="1:7" ht="27">
       <c r="A225" s="22" t="s">
         <v>570</v>
       </c>
@@ -14026,7 +13679,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" ht="409.6">
       <c r="A226" s="22" t="s">
         <v>570</v>
       </c>
@@ -14049,7 +13702,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" ht="409.6">
       <c r="A227" s="22" t="s">
         <v>584</v>
       </c>
@@ -14072,7 +13725,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" ht="409.6">
       <c r="A228" s="22" t="s">
         <v>584</v>
       </c>
@@ -14095,7 +13748,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" ht="409.6">
       <c r="A229" s="22" t="s">
         <v>584</v>
       </c>
@@ -14118,7 +13771,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" ht="409.6">
       <c r="A230" s="22" t="s">
         <v>593</v>
       </c>
@@ -14141,7 +13794,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" ht="409.6">
       <c r="A231" s="22" t="s">
         <v>593</v>
       </c>
@@ -14164,7 +13817,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" ht="409.6">
       <c r="A232" s="22" t="s">
         <v>594</v>
       </c>
@@ -14185,7 +13838,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" ht="409.6">
       <c r="A233" s="22" t="s">
         <v>594</v>
       </c>
@@ -14206,7 +13859,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" ht="409.6">
       <c r="A234" s="22" t="s">
         <v>601</v>
       </c>
@@ -14229,7 +13882,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="235" ht="27" spans="1:7">
+    <row r="235" spans="1:7" ht="27">
       <c r="A235" s="22" t="s">
         <v>601</v>
       </c>
@@ -14252,7 +13905,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" ht="409.6">
       <c r="A236" s="22" t="s">
         <v>609</v>
       </c>
@@ -14275,7 +13928,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" ht="409.6">
       <c r="A237" s="22" t="s">
         <v>612</v>
       </c>
@@ -14298,7 +13951,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" ht="409.6">
       <c r="A238" s="22" t="s">
         <v>612</v>
       </c>
@@ -14321,7 +13974,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" ht="409.6">
       <c r="A239" s="22" t="s">
         <v>619</v>
       </c>
@@ -14344,7 +13997,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="240" ht="40.5" spans="1:7">
+    <row r="240" spans="1:7" ht="40.5">
       <c r="A240" s="22" t="s">
         <v>619</v>
       </c>
@@ -14367,7 +14020,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="241" ht="27" spans="1:7">
+    <row r="241" spans="1:7" ht="27">
       <c r="A241" s="22" t="s">
         <v>619</v>
       </c>
@@ -14390,7 +14043,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" ht="409.6">
       <c r="A242" s="22" t="s">
         <v>625</v>
       </c>
@@ -14413,7 +14066,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="243" ht="54" spans="1:7">
+    <row r="243" spans="1:7" ht="54">
       <c r="A243" s="22" t="s">
         <v>625</v>
       </c>
@@ -14436,7 +14089,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" ht="409.6">
       <c r="A244" s="22" t="s">
         <v>631</v>
       </c>
@@ -14459,7 +14112,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" ht="409.6">
       <c r="A245" s="22" t="s">
         <v>635</v>
       </c>
@@ -14482,7 +14135,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" ht="409.6">
       <c r="A246" s="22" t="s">
         <v>635</v>
       </c>
@@ -14505,7 +14158,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" ht="409.6">
       <c r="A247" s="22" t="s">
         <v>635</v>
       </c>
@@ -14526,7 +14179,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="248" ht="27" spans="1:7">
+    <row r="248" spans="1:7" ht="27">
       <c r="A248" s="22" t="s">
         <v>635</v>
       </c>
@@ -14549,7 +14202,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" ht="409.6">
       <c r="A249" s="22" t="s">
         <v>642</v>
       </c>
@@ -14572,7 +14225,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" ht="409.6">
       <c r="A250" s="22" t="s">
         <v>644</v>
       </c>
@@ -14595,7 +14248,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="251" ht="40.5" spans="1:7">
+    <row r="251" spans="1:7" ht="40.5">
       <c r="A251" s="22" t="s">
         <v>646</v>
       </c>
@@ -14616,7 +14269,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" ht="409.6">
       <c r="A252" s="22" t="s">
         <v>650</v>
       </c>
@@ -14639,7 +14292,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="253" ht="27" spans="1:7">
+    <row r="253" spans="1:7" ht="27">
       <c r="A253" s="22" t="s">
         <v>652</v>
       </c>
@@ -14660,7 +14313,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="254" ht="40.5" spans="1:7">
+    <row r="254" spans="1:7" ht="40.5">
       <c r="A254" s="22" t="s">
         <v>652</v>
       </c>
@@ -14681,7 +14334,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" ht="409.6">
       <c r="A255" s="22" t="s">
         <v>657</v>
       </c>
@@ -14700,7 +14353,7 @@
       </c>
       <c r="G255" s="23"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" ht="409.6">
       <c r="A256" s="22" t="s">
         <v>657</v>
       </c>
@@ -14719,7 +14372,7 @@
       </c>
       <c r="G256" s="23"/>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" ht="409.6">
       <c r="A257" s="22" t="s">
         <v>657</v>
       </c>
@@ -14738,7 +14391,7 @@
       </c>
       <c r="G257" s="23"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" ht="409.6">
       <c r="A258" s="22" t="s">
         <v>657</v>
       </c>
@@ -14759,7 +14412,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" ht="409.6">
       <c r="A259" s="22" t="s">
         <v>666</v>
       </c>
@@ -14780,7 +14433,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" ht="409.6">
       <c r="A260" s="22" t="s">
         <v>670</v>
       </c>
@@ -14801,7 +14454,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="261" ht="27" spans="1:7">
+    <row r="261" spans="1:7" ht="27">
       <c r="A261" s="22" t="s">
         <v>670</v>
       </c>
@@ -14822,7 +14475,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="262" ht="27" spans="1:7">
+    <row r="262" spans="1:7" ht="27">
       <c r="A262" s="22" t="s">
         <v>676</v>
       </c>
@@ -14843,7 +14496,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" ht="409.6">
       <c r="A263" s="22" t="s">
         <v>680</v>
       </c>
@@ -14864,7 +14517,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="264" ht="27" spans="1:7">
+    <row r="264" spans="1:7" ht="27">
       <c r="A264" s="22" t="s">
         <v>683</v>
       </c>
@@ -14887,7 +14540,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" ht="409.6">
       <c r="A265" s="22" t="s">
         <v>683</v>
       </c>
@@ -14910,7 +14563,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="266" ht="27" spans="1:7">
+    <row r="266" spans="1:7" ht="27">
       <c r="A266" s="22" t="s">
         <v>689</v>
       </c>
@@ -14931,7 +14584,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" ht="409.6">
       <c r="A267" s="22" t="s">
         <v>690</v>
       </c>
@@ -14954,7 +14607,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="268" ht="27" spans="1:7">
+    <row r="268" spans="1:7" ht="27">
       <c r="A268" s="22" t="s">
         <v>690</v>
       </c>
@@ -14977,7 +14630,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="269" ht="27" spans="1:7">
+    <row r="269" spans="1:7" ht="27">
       <c r="A269" s="22" t="s">
         <v>690</v>
       </c>
@@ -15000,7 +14653,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="270" s="19" customFormat="1" spans="1:7">
+    <row r="270" spans="1:7" s="19" customFormat="1" ht="409.6">
       <c r="A270" s="60" t="s">
         <v>694</v>
       </c>
@@ -15021,7 +14674,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="271" s="19" customFormat="1" spans="1:7">
+    <row r="271" spans="1:7" s="19" customFormat="1" ht="409.6">
       <c r="A271" s="60" t="s">
         <v>697</v>
       </c>
@@ -15042,7 +14695,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="272" s="19" customFormat="1" spans="1:7">
+    <row r="272" spans="1:7" s="19" customFormat="1" ht="409.6">
       <c r="A272" s="60" t="s">
         <v>697</v>
       </c>
@@ -15063,7 +14716,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" ht="409.6">
       <c r="A273" s="22" t="s">
         <v>701</v>
       </c>
@@ -15086,7 +14739,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" ht="409.6">
       <c r="A274" s="22" t="s">
         <v>704</v>
       </c>
@@ -15109,7 +14762,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="275" ht="27" spans="1:7">
+    <row r="275" spans="1:7" ht="27">
       <c r="A275" s="22" t="s">
         <v>704</v>
       </c>
@@ -15132,7 +14785,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" ht="409.6">
       <c r="A276" s="22" t="s">
         <v>705</v>
       </c>
@@ -15153,7 +14806,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="277" ht="40.5" spans="1:7">
+    <row r="277" spans="1:7" ht="40.5">
       <c r="A277" s="22" t="s">
         <v>709</v>
       </c>
@@ -15176,7 +14829,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" ht="409.6">
       <c r="A278" s="22" t="s">
         <v>709</v>
       </c>
@@ -15199,7 +14852,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" ht="409.6">
       <c r="A279" s="22" t="s">
         <v>709</v>
       </c>
@@ -15222,7 +14875,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="280" s="19" customFormat="1" spans="1:7">
+    <row r="280" spans="1:7" s="19" customFormat="1" ht="409.6">
       <c r="A280" s="60" t="s">
         <v>716</v>
       </c>
@@ -15245,7 +14898,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" ht="409.6">
       <c r="A281" s="22" t="s">
         <v>718</v>
       </c>
@@ -15268,7 +14921,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="282" ht="27" spans="1:7">
+    <row r="282" spans="1:7" ht="27">
       <c r="A282" s="22" t="s">
         <v>718</v>
       </c>
@@ -15291,7 +14944,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" ht="27" spans="1:7">
+    <row r="283" spans="1:7" ht="27">
       <c r="A283" s="22" t="s">
         <v>718</v>
       </c>
@@ -15314,7 +14967,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" ht="409.6">
       <c r="A284" s="22" t="s">
         <v>718</v>
       </c>
@@ -15337,7 +14990,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="285" ht="27" spans="1:7">
+    <row r="285" spans="1:7" ht="27">
       <c r="A285" s="22" t="s">
         <v>718</v>
       </c>
@@ -15360,7 +15013,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" ht="409.6">
       <c r="A286" s="22" t="s">
         <v>727</v>
       </c>
@@ -15383,7 +15036,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" ht="409.6">
       <c r="A287" s="22" t="s">
         <v>727</v>
       </c>
@@ -15406,7 +15059,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="288" ht="27" spans="1:7">
+    <row r="288" spans="1:7" ht="27">
       <c r="A288" s="22" t="s">
         <v>734</v>
       </c>
@@ -15429,7 +15082,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:8" ht="409.6">
       <c r="A289" s="22" t="s">
         <v>734</v>
       </c>
@@ -15452,7 +15105,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:8" ht="409.6">
       <c r="A290" s="22" t="s">
         <v>738</v>
       </c>
@@ -15475,7 +15128,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:8" ht="409.6">
       <c r="A291" s="22" t="s">
         <v>741</v>
       </c>
@@ -15498,7 +15151,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="292" ht="27" spans="1:7">
+    <row r="292" spans="1:8" ht="27">
       <c r="A292" s="22" t="s">
         <v>741</v>
       </c>
@@ -15521,7 +15174,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="293" ht="27" spans="1:7">
+    <row r="293" spans="1:8" ht="27">
       <c r="A293" s="22" t="s">
         <v>741</v>
       </c>
@@ -15544,7 +15197,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:8" ht="409.6">
       <c r="A294" s="22" t="s">
         <v>750</v>
       </c>
@@ -15567,7 +15220,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="295" ht="229.5" spans="1:7">
+    <row r="295" spans="1:8" ht="229.5">
       <c r="A295" s="22" t="s">
         <v>750</v>
       </c>
@@ -15590,7 +15243,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:8" ht="409.6">
       <c r="A296" s="22" t="s">
         <v>750</v>
       </c>
@@ -15613,7 +15266,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" ht="409.6">
       <c r="A297" s="22" t="s">
         <v>756</v>
       </c>
@@ -15639,7 +15292,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="298" ht="27" spans="1:7">
+    <row r="298" spans="1:8" ht="27">
       <c r="A298" s="22" t="s">
         <v>760</v>
       </c>
@@ -15662,7 +15315,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:8" ht="409.6">
       <c r="A299" s="22" t="s">
         <v>760</v>
       </c>
@@ -15685,7 +15338,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="300" ht="27" spans="1:7">
+    <row r="300" spans="1:8" ht="27">
       <c r="A300" s="22" t="s">
         <v>768</v>
       </c>
@@ -15708,7 +15361,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="301" ht="27" spans="1:7">
+    <row r="301" spans="1:8" ht="27">
       <c r="A301" s="22" t="s">
         <v>768</v>
       </c>
@@ -15731,7 +15384,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="302" s="19" customFormat="1" ht="27" spans="1:7">
+    <row r="302" spans="1:8" s="19" customFormat="1" ht="27">
       <c r="A302" s="60" t="s">
         <v>768</v>
       </c>
@@ -15754,7 +15407,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:8" ht="409.6">
       <c r="A303" s="22" t="s">
         <v>779</v>
       </c>
@@ -15777,7 +15430,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="304" ht="54" spans="1:7">
+    <row r="304" spans="1:8" ht="54">
       <c r="A304" s="22" t="s">
         <v>779</v>
       </c>
@@ -15800,7 +15453,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" ht="409.6">
       <c r="A305" s="22" t="s">
         <v>785</v>
       </c>
@@ -15823,7 +15476,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="306" ht="27" spans="1:7">
+    <row r="306" spans="1:7" ht="27">
       <c r="A306" s="22" t="s">
         <v>785</v>
       </c>
@@ -15846,7 +15499,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="307" s="17" customFormat="1" spans="1:7">
+    <row r="307" spans="1:7" s="17" customFormat="1" ht="409.6">
       <c r="A307" s="37" t="s">
         <v>792</v>
       </c>
@@ -15869,7 +15522,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" ht="409.6">
       <c r="A308" s="22" t="s">
         <v>792</v>
       </c>
@@ -15892,7 +15545,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="309" ht="27" spans="1:7">
+    <row r="309" spans="1:7" ht="27">
       <c r="A309" s="22" t="s">
         <v>797</v>
       </c>
@@ -15915,7 +15568,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" ht="409.6">
       <c r="A310" s="22" t="s">
         <v>797</v>
       </c>
@@ -15938,7 +15591,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="311" ht="40.5" spans="1:7">
+    <row r="311" spans="1:7" ht="40.5">
       <c r="A311" s="22" t="s">
         <v>797</v>
       </c>
@@ -15961,7 +15614,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" ht="409.6">
       <c r="A312" s="22" t="s">
         <v>807</v>
       </c>
@@ -15984,7 +15637,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" ht="409.6">
       <c r="A313" s="22" t="s">
         <v>809</v>
       </c>
@@ -16007,7 +15660,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" ht="409.6">
       <c r="A314" s="22" t="s">
         <v>809</v>
       </c>
@@ -16030,7 +15683,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" ht="409.6">
       <c r="A315" s="22" t="s">
         <v>814</v>
       </c>
@@ -16053,7 +15706,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" ht="409.6">
       <c r="A316" s="22" t="s">
         <v>814</v>
       </c>
@@ -16076,7 +15729,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" ht="409.6">
       <c r="A317" s="22" t="s">
         <v>819</v>
       </c>
@@ -16099,7 +15752,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" ht="409.6">
       <c r="A318" s="22" t="s">
         <v>820</v>
       </c>
@@ -16122,7 +15775,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" ht="409.6">
       <c r="A319" s="22" t="s">
         <v>820</v>
       </c>
@@ -16145,7 +15798,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" ht="409.6">
       <c r="A320" s="22" t="s">
         <v>823</v>
       </c>
@@ -16168,7 +15821,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" ht="409.6">
       <c r="A321" s="41" t="s">
         <v>824</v>
       </c>
@@ -16191,7 +15844,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" ht="409.6">
       <c r="A322" s="41" t="s">
         <v>826</v>
       </c>
@@ -16214,7 +15867,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="323" s="19" customFormat="1" spans="1:7">
+    <row r="323" spans="1:7" s="19" customFormat="1" ht="409.6">
       <c r="A323" s="60" t="s">
         <v>828</v>
       </c>
@@ -16233,7 +15886,7 @@
       </c>
       <c r="G323" s="59"/>
     </row>
-    <row r="324" s="19" customFormat="1" spans="1:7">
+    <row r="324" spans="1:7" s="19" customFormat="1" ht="409.6">
       <c r="A324" s="60" t="s">
         <v>829</v>
       </c>
@@ -16252,7 +15905,7 @@
       </c>
       <c r="G324" s="59"/>
     </row>
-    <row r="325" ht="40.5" spans="1:7">
+    <row r="325" spans="1:7" ht="40.5">
       <c r="A325" s="22" t="s">
         <v>830</v>
       </c>
@@ -16275,7 +15928,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="326" ht="40.5" spans="1:7">
+    <row r="326" spans="1:7" ht="40.5">
       <c r="A326" s="22" t="s">
         <v>833</v>
       </c>
@@ -16298,7 +15951,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="327" ht="40.5" spans="1:7">
+    <row r="327" spans="1:7" ht="40.5">
       <c r="A327" s="22" t="s">
         <v>834</v>
       </c>
@@ -16321,7 +15974,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="328" ht="54" spans="1:7">
+    <row r="328" spans="1:7" ht="54">
       <c r="A328" s="22" t="s">
         <v>835</v>
       </c>
@@ -16344,7 +15997,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" ht="409.6">
       <c r="A329" s="22" t="s">
         <v>835</v>
       </c>
@@ -16367,7 +16020,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" ht="409.6">
       <c r="A330" s="22" t="s">
         <v>835</v>
       </c>
@@ -16390,7 +16043,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" ht="409.6">
       <c r="A331" s="22" t="s">
         <v>844</v>
       </c>
@@ -16413,7 +16066,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="332" ht="27" spans="1:7">
+    <row r="332" spans="1:7" ht="27">
       <c r="A332" s="22" t="s">
         <v>847</v>
       </c>
@@ -16436,7 +16089,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="333" ht="27" spans="1:7">
+    <row r="333" spans="1:7" ht="27">
       <c r="A333" s="22" t="s">
         <v>847</v>
       </c>
@@ -16459,7 +16112,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" ht="409.6">
       <c r="A334" s="22" t="s">
         <v>847</v>
       </c>
@@ -16482,7 +16135,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" ht="409.6">
       <c r="A335" s="22" t="s">
         <v>847</v>
       </c>
@@ -16505,7 +16158,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" ht="409.6">
       <c r="A336" s="22" t="s">
         <v>847</v>
       </c>
@@ -16528,7 +16181,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" ht="409.6">
       <c r="A337" s="22" t="s">
         <v>847</v>
       </c>
@@ -16551,7 +16204,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" ht="409.6">
       <c r="A338" s="22" t="s">
         <v>864</v>
       </c>
@@ -16574,7 +16227,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" ht="409.6">
       <c r="A339" s="22" t="s">
         <v>864</v>
       </c>
@@ -16597,7 +16250,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="340" ht="27" spans="1:7">
+    <row r="340" spans="1:7" ht="27">
       <c r="A340" s="22" t="s">
         <v>869</v>
       </c>
@@ -16620,7 +16273,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" ht="409.6">
       <c r="A341" s="22" t="s">
         <v>869</v>
       </c>
@@ -16643,7 +16296,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="342" ht="27" spans="1:7">
+    <row r="342" spans="1:7" ht="27">
       <c r="A342" s="22" t="s">
         <v>874</v>
       </c>
@@ -16666,7 +16319,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="343" ht="27" spans="1:7">
+    <row r="343" spans="1:7" ht="27">
       <c r="A343" s="22" t="s">
         <v>874</v>
       </c>
@@ -16689,7 +16342,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" ht="409.6">
       <c r="A344" s="22" t="s">
         <v>874</v>
       </c>
@@ -16712,7 +16365,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" ht="409.6">
       <c r="A345" s="22" t="s">
         <v>874</v>
       </c>
@@ -16735,7 +16388,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" ht="409.6">
       <c r="A346" s="22" t="s">
         <v>874</v>
       </c>
@@ -16758,7 +16411,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" ht="409.6">
       <c r="A347" s="22" t="s">
         <v>874</v>
       </c>
@@ -16781,7 +16434,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" ht="409.6">
       <c r="A348" s="22" t="s">
         <v>886</v>
       </c>
@@ -16804,7 +16457,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" ht="409.6">
       <c r="A349" s="22" t="s">
         <v>886</v>
       </c>
@@ -16827,7 +16480,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="350" ht="27" spans="1:7">
+    <row r="350" spans="1:7" ht="27">
       <c r="A350" s="22" t="s">
         <v>891</v>
       </c>
@@ -16850,7 +16503,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="351" ht="27" spans="1:7">
+    <row r="351" spans="1:7" ht="27">
       <c r="A351" s="36" t="s">
         <v>895</v>
       </c>
@@ -16873,7 +16526,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="352" ht="27" spans="1:7">
+    <row r="352" spans="1:7" ht="27">
       <c r="A352" s="36" t="s">
         <v>895</v>
       </c>
@@ -16896,7 +16549,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="353" ht="27" spans="1:7">
+    <row r="353" spans="1:7" ht="27">
       <c r="A353" s="36" t="s">
         <v>895</v>
       </c>
@@ -16919,7 +16572,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="354" ht="27" spans="1:7">
+    <row r="354" spans="1:7" ht="27">
       <c r="A354" s="36" t="s">
         <v>895</v>
       </c>
@@ -16942,7 +16595,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" ht="409.6">
       <c r="A355" s="36" t="s">
         <v>895</v>
       </c>
@@ -16965,7 +16618,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" ht="409.6">
       <c r="A356" s="22" t="s">
         <v>909</v>
       </c>
@@ -16988,7 +16641,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" ht="409.6">
       <c r="A357" s="22" t="s">
         <v>909</v>
       </c>
@@ -17011,7 +16664,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" ht="409.6">
       <c r="A358" s="22" t="s">
         <v>909</v>
       </c>
@@ -17034,7 +16687,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" ht="409.6">
       <c r="A359" s="22" t="s">
         <v>909</v>
       </c>
@@ -17057,7 +16710,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="360" ht="27" spans="1:7">
+    <row r="360" spans="1:7" ht="27">
       <c r="A360" s="22" t="s">
         <v>909</v>
       </c>
@@ -17080,7 +16733,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="361" ht="81" spans="1:7">
+    <row r="361" spans="1:7" ht="81">
       <c r="A361" s="22" t="s">
         <v>922</v>
       </c>
@@ -17103,7 +16756,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" ht="409.6">
       <c r="A362" s="22" t="s">
         <v>922</v>
       </c>
@@ -17126,7 +16779,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" ht="409.6">
       <c r="A363" s="22" t="s">
         <v>929</v>
       </c>
@@ -17149,7 +16802,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" ht="409.6">
       <c r="A364" s="41" t="s">
         <v>929</v>
       </c>
@@ -17172,7 +16825,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" ht="409.6">
       <c r="A365" s="22" t="s">
         <v>936</v>
       </c>
@@ -17195,7 +16848,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" ht="409.6">
       <c r="A366" s="22" t="s">
         <v>939</v>
       </c>
@@ -17218,7 +16871,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" ht="409.6">
       <c r="A367" s="22" t="s">
         <v>939</v>
       </c>
@@ -17241,7 +16894,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" ht="409.6">
       <c r="A368" s="22" t="s">
         <v>939</v>
       </c>
@@ -17264,7 +16917,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="369" ht="27" spans="1:7">
+    <row r="369" spans="1:7" ht="27">
       <c r="A369" s="22" t="s">
         <v>946</v>
       </c>
@@ -17287,7 +16940,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" ht="409.6">
       <c r="A370" s="22" t="s">
         <v>946</v>
       </c>
@@ -17310,7 +16963,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="371" ht="27" spans="1:7">
+    <row r="371" spans="1:7" ht="27">
       <c r="A371" s="22" t="s">
         <v>946</v>
       </c>
@@ -17333,7 +16986,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="372" ht="27" spans="1:7">
+    <row r="372" spans="1:7" ht="27">
       <c r="A372" s="22" t="s">
         <v>946</v>
       </c>
@@ -17356,7 +17009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" ht="409.6">
       <c r="A373" s="22" t="s">
         <v>949</v>
       </c>
@@ -17379,7 +17032,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" ht="409.6">
       <c r="A374" s="41" t="s">
         <v>949</v>
       </c>
@@ -17402,7 +17055,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" ht="409.6">
       <c r="A375" s="22" t="s">
         <v>949</v>
       </c>
@@ -17425,7 +17078,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="376" ht="27" spans="1:7">
+    <row r="376" spans="1:7" ht="27">
       <c r="A376" s="22" t="s">
         <v>949</v>
       </c>
@@ -17448,7 +17101,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" ht="409.6">
       <c r="A377" s="22" t="s">
         <v>949</v>
       </c>
@@ -17471,7 +17124,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" ht="409.6">
       <c r="A378" s="22" t="s">
         <v>961</v>
       </c>
@@ -17494,7 +17147,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" ht="409.6">
       <c r="A379" s="22" t="s">
         <v>961</v>
       </c>
@@ -17517,7 +17170,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="380" ht="54" spans="1:7">
+    <row r="380" spans="1:7" ht="54">
       <c r="A380" s="22" t="s">
         <v>961</v>
       </c>
@@ -17540,7 +17193,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" ht="409.6">
       <c r="A381" s="22" t="s">
         <v>973</v>
       </c>
@@ -17561,7 +17214,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" ht="409.6">
       <c r="A382" s="22" t="s">
         <v>973</v>
       </c>
@@ -17582,7 +17235,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" ht="409.6">
       <c r="A383" s="41" t="s">
         <v>978</v>
       </c>
@@ -17605,7 +17258,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" ht="409.6">
       <c r="A384" s="41" t="s">
         <v>978</v>
       </c>
@@ -17628,7 +17281,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" ht="409.6">
       <c r="A385" s="22" t="s">
         <v>982</v>
       </c>
@@ -17651,7 +17304,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" ht="409.6">
       <c r="A386" s="22" t="s">
         <v>982</v>
       </c>
@@ -17674,7 +17327,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="387" ht="67.5" spans="1:7">
+    <row r="387" spans="1:7" ht="67.5">
       <c r="A387" s="22" t="s">
         <v>982</v>
       </c>
@@ -17697,7 +17350,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" ht="409.6">
       <c r="A388" s="22" t="s">
         <v>982</v>
       </c>
@@ -17720,7 +17373,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="389" ht="27" spans="1:7">
+    <row r="389" spans="1:7" ht="27">
       <c r="A389" s="22" t="s">
         <v>991</v>
       </c>
@@ -17743,7 +17396,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="390" ht="27" spans="1:7">
+    <row r="390" spans="1:7" ht="27">
       <c r="A390" s="22" t="s">
         <v>991</v>
       </c>
@@ -17766,7 +17419,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="391" ht="27" spans="1:7">
+    <row r="391" spans="1:7" ht="27">
       <c r="A391" s="22" t="s">
         <v>991</v>
       </c>
@@ -17789,7 +17442,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="392" ht="27" spans="1:7">
+    <row r="392" spans="1:7" ht="27">
       <c r="A392" s="22" t="s">
         <v>991</v>
       </c>
@@ -17812,7 +17465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" ht="409.6">
       <c r="A393" s="22" t="s">
         <v>991</v>
       </c>
@@ -17835,7 +17488,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" ht="409.6">
       <c r="A394" s="22" t="s">
         <v>998</v>
       </c>
@@ -17858,7 +17511,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="395" ht="27" spans="1:7">
+    <row r="395" spans="1:7" ht="27">
       <c r="A395" s="22" t="s">
         <v>1001</v>
       </c>
@@ -17881,7 +17534,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" ht="409.6">
       <c r="A396" s="22" t="s">
         <v>1001</v>
       </c>
@@ -17904,7 +17557,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="397" ht="27" spans="1:7">
+    <row r="397" spans="1:7" ht="27">
       <c r="A397" s="22" t="s">
         <v>1001</v>
       </c>
@@ -17927,7 +17580,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="398" ht="27" spans="1:7">
+    <row r="398" spans="1:7" ht="27">
       <c r="A398" s="22" t="s">
         <v>1011</v>
       </c>
@@ -17950,7 +17603,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" ht="409.6">
       <c r="A399" s="22" t="s">
         <v>1011</v>
       </c>
@@ -17973,7 +17626,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="400" ht="229.5" spans="1:7">
+    <row r="400" spans="1:7" ht="229.5">
       <c r="A400" s="22" t="s">
         <v>1016</v>
       </c>
@@ -17996,7 +17649,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="401" ht="40.5" spans="1:7">
+    <row r="401" spans="1:7" ht="40.5">
       <c r="A401" s="22" t="s">
         <v>1016</v>
       </c>
@@ -18019,7 +17672,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="402" ht="27" spans="1:7">
+    <row r="402" spans="1:7" ht="27">
       <c r="A402" s="22" t="s">
         <v>1016</v>
       </c>
@@ -18042,7 +17695,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="403" ht="27" spans="1:7">
+    <row r="403" spans="1:7" ht="27">
       <c r="A403" s="22" t="s">
         <v>1016</v>
       </c>
@@ -18065,7 +17718,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="404" ht="27" spans="1:7">
+    <row r="404" spans="1:7" ht="27">
       <c r="A404" s="22" t="s">
         <v>1026</v>
       </c>
@@ -18088,7 +17741,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" ht="409.6">
       <c r="A405" s="22" t="s">
         <v>1026</v>
       </c>
@@ -18111,7 +17764,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="406" ht="40.5" spans="1:7">
+    <row r="406" spans="1:7" ht="40.5">
       <c r="A406" s="22" t="s">
         <v>1030</v>
       </c>
@@ -18134,7 +17787,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="407" ht="27" spans="1:7">
+    <row r="407" spans="1:7" ht="27">
       <c r="A407" s="22" t="s">
         <v>1030</v>
       </c>
@@ -18157,7 +17810,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="408" ht="27" spans="1:7">
+    <row r="408" spans="1:7" ht="27">
       <c r="A408" s="22" t="s">
         <v>1036</v>
       </c>
@@ -18178,7 +17831,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="409" ht="27" spans="1:7">
+    <row r="409" spans="1:7" ht="27">
       <c r="A409" s="22" t="s">
         <v>1036</v>
       </c>
@@ -18199,7 +17852,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="410" ht="27" spans="1:7">
+    <row r="410" spans="1:7" ht="27">
       <c r="A410" s="22" t="s">
         <v>1036</v>
       </c>
@@ -18220,7 +17873,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="411" ht="27" spans="1:7">
+    <row r="411" spans="1:7" ht="27">
       <c r="A411" s="22" t="s">
         <v>1040</v>
       </c>
@@ -18241,7 +17894,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="412" ht="27" spans="1:7">
+    <row r="412" spans="1:7" ht="27">
       <c r="A412" s="54" t="s">
         <v>1041</v>
       </c>
@@ -18264,7 +17917,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="413" ht="27" spans="1:7">
+    <row r="413" spans="1:7" ht="27">
       <c r="A413" s="54" t="s">
         <v>1041</v>
       </c>
@@ -18287,34 +17940,34 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="414" spans="6:6">
+    <row r="414" spans="1:7" ht="409.6">
       <c r="F414" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F413"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="G177:G191">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
@@ -18322,12 +17975,12 @@
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="51.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="61.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="25.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -18353,7 +18006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2" s="8" t="s">
         <v>1047</v>
       </c>
@@ -18373,7 +18026,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" ht="27" spans="1:8">
+    <row r="3" spans="1:8" ht="27" hidden="1">
       <c r="A3" s="8" t="s">
         <v>1048</v>
       </c>
@@ -18395,7 +18048,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" ht="27" spans="1:8">
+    <row r="4" spans="1:8" ht="27" hidden="1">
       <c r="A4" s="8"/>
       <c r="B4" s="12" t="s">
         <v>1049</v>
@@ -18413,7 +18066,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5" s="8" t="s">
         <v>1051</v>
       </c>
@@ -18437,7 +18090,7 @@
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" s="8"/>
       <c r="B6" s="12" t="s">
         <v>1054</v>
@@ -18459,7 +18112,7 @@
       </c>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" ht="27" spans="1:8">
+    <row r="7" spans="1:8" ht="27" hidden="1">
       <c r="A7" s="8" t="s">
         <v>1058</v>
       </c>
@@ -18476,12 +18129,12 @@
       <c r="F7" s="11" t="s">
         <v>1059</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>1060</v>
+      <c r="G7" s="67" t="s">
+        <v>1135</v>
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" s="8"/>
       <c r="B8" s="12" t="s">
         <v>57</v>
@@ -18494,14 +18147,14 @@
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>1061</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>1062</v>
-      </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" s="8"/>
       <c r="B9" s="12" t="s">
         <v>229</v>
@@ -18514,16 +18167,16 @@
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" hidden="1">
+      <c r="A10" s="8" t="s">
         <v>1063</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="8" t="s">
-        <v>1065</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>57</v>
@@ -18536,16 +18189,16 @@
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>1062</v>
+        <v>1060</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>1138</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" s="8" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>51</v>
@@ -18557,20 +18210,20 @@
         <v>483</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" ht="40.5" spans="1:8">
+    <row r="12" spans="1:8" ht="40.5" hidden="1">
       <c r="A12" s="8"/>
       <c r="B12" s="12" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>16</v>
@@ -18579,19 +18232,19 @@
         <v>483</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>1070</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" hidden="1">
+      <c r="A13" s="8" t="s">
         <v>1071</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="8" t="s">
-        <v>1073</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>51</v>
@@ -18603,19 +18256,19 @@
         <v>483</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>55</v>
+        <v>1066</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>1142</v>
       </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>15</v>
@@ -18630,12 +18283,14 @@
       <c r="F14" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="67" t="s">
+        <v>1178</v>
+      </c>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>776</v>
@@ -18650,7 +18305,9 @@
       <c r="F15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="67" t="s">
+        <v>1135</v>
+      </c>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
@@ -18665,10 +18322,12 @@
         <v>30</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G16" s="11"/>
+      <c r="F16" s="67" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G16" s="67" t="s">
+        <v>1137</v>
+      </c>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8">
@@ -18683,18 +18342,20 @@
         <v>30</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G17" s="11"/>
+      <c r="F17" s="67" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G17" s="67" t="s">
+        <v>1177</v>
+      </c>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" hidden="1">
       <c r="A18" s="8" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>16</v>
@@ -18703,16 +18364,16 @@
         <v>503</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="11" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G18" s="11"/>
+      <c r="F18" s="67" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G18" s="67"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" hidden="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>16</v>
@@ -18722,12 +18383,12 @@
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="11" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" hidden="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
         <v>15</v>
@@ -18740,15 +18401,15 @@
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="11" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" hidden="1">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>16</v>
@@ -18758,17 +18419,17 @@
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="11" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" hidden="1">
       <c r="A22" s="8" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>16</v>
@@ -18778,15 +18439,15 @@
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="11" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>16</v>
@@ -18796,15 +18457,15 @@
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="11" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" hidden="1">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>16</v>
@@ -18814,15 +18475,15 @@
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="11" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" hidden="1">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>16</v>
@@ -18832,17 +18493,17 @@
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="11" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" hidden="1">
       <c r="A26" s="8" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>16</v>
@@ -18852,15 +18513,15 @@
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="11" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" hidden="1">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>16</v>
@@ -18870,15 +18531,15 @@
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="11" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" hidden="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>16</v>
@@ -18888,17 +18549,17 @@
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="11" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" hidden="1">
       <c r="A29" s="8" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>16</v>
@@ -18908,15 +18569,15 @@
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="11" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" hidden="1">
       <c r="A30" s="12"/>
       <c r="B30" s="12" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>16</v>
@@ -18926,15 +18587,15 @@
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="11" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" hidden="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>16</v>
@@ -18944,17 +18605,17 @@
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" hidden="1">
       <c r="A32" s="8" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>16</v>
@@ -18964,15 +18625,15 @@
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="11" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" hidden="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>16</v>
@@ -18982,15 +18643,15 @@
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="11" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" hidden="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>16</v>
@@ -19000,17 +18661,17 @@
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="11" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" hidden="1">
       <c r="A35" s="8" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>16</v>
@@ -19020,15 +18681,15 @@
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="11" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" hidden="1">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>16</v>
@@ -19038,15 +18699,15 @@
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="11" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" hidden="1">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>16</v>
@@ -19056,12 +18717,12 @@
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="11" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" hidden="1">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
         <v>15</v>
@@ -19074,17 +18735,17 @@
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="11" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" hidden="1">
       <c r="A39" s="8" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>16</v>
@@ -19094,15 +18755,15 @@
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="11" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" hidden="1">
       <c r="A40" s="12"/>
       <c r="B40" s="12" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>16</v>
@@ -19112,15 +18773,15 @@
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="11" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" hidden="1">
       <c r="A41" s="12"/>
       <c r="B41" s="12" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>16</v>
@@ -19130,12 +18791,12 @@
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="11" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" hidden="1">
       <c r="A42" s="12"/>
       <c r="B42" s="12" t="s">
         <v>15</v>
@@ -19148,14 +18809,14 @@
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="11" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>51</v>
@@ -19170,15 +18831,17 @@
       <c r="F43" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="G43" s="11"/>
+      <c r="G43" s="67" t="s">
+        <v>1143</v>
+      </c>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" hidden="1">
       <c r="A44" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>16</v>
@@ -19188,12 +18851,12 @@
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="11" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" hidden="1">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
         <v>57</v>
@@ -19206,12 +18869,12 @@
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="11" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" hidden="1">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
         <v>193</v>
@@ -19224,12 +18887,12 @@
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="11" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" hidden="1">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
         <v>51</v>
@@ -19242,14 +18905,14 @@
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="11" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" hidden="1">
       <c r="A48" s="8" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>776</v>
@@ -19269,7 +18932,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="8" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>72</v>
@@ -19284,7 +18947,9 @@
       <c r="F49" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="11"/>
+      <c r="G49" s="67" t="s">
+        <v>1144</v>
+      </c>
       <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8">
@@ -19299,10 +18964,12 @@
         <v>30</v>
       </c>
       <c r="E50" s="12"/>
-      <c r="F50" s="11" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G50" s="11"/>
+      <c r="F50" s="67" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G50" s="67" t="s">
+        <v>1185</v>
+      </c>
       <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8">
@@ -19317,13 +18984,15 @@
         <v>30</v>
       </c>
       <c r="E51" s="12"/>
-      <c r="F51" s="11" t="s">
-        <v>1106</v>
-      </c>
-      <c r="G51" s="11"/>
+      <c r="F51" s="67" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G51" s="67" t="s">
+        <v>1187</v>
+      </c>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" ht="27" spans="1:8">
+    <row r="52" spans="1:8" ht="27">
       <c r="A52" s="12"/>
       <c r="B52" s="12" t="s">
         <v>105</v>
@@ -19336,12 +19005,14 @@
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="11" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G52" s="11"/>
+        <v>1102</v>
+      </c>
+      <c r="G52" s="67" t="s">
+        <v>1183</v>
+      </c>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" ht="27" spans="1:8">
+    <row r="53" spans="1:8" ht="27">
       <c r="A53" s="12"/>
       <c r="B53" s="12" t="s">
         <v>107</v>
@@ -19356,15 +19027,17 @@
       <c r="F53" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G53" s="11"/>
+      <c r="G53" s="67" t="s">
+        <v>1182</v>
+      </c>
       <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>16</v>
@@ -19373,10 +19046,12 @@
         <v>30</v>
       </c>
       <c r="E54" s="12"/>
-      <c r="F54" s="11" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G54" s="11"/>
+      <c r="F54" s="67" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G54" s="67" t="s">
+        <v>1179</v>
+      </c>
       <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8">
@@ -19391,15 +19066,17 @@
         <v>30</v>
       </c>
       <c r="E55" s="12"/>
-      <c r="F55" s="11" t="s">
-        <v>1111</v>
-      </c>
-      <c r="G55" s="11"/>
+      <c r="F55" s="67" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G55" s="67" t="s">
+        <v>1181</v>
+      </c>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" hidden="1">
       <c r="A56" s="8" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>57</v>
@@ -19412,15 +19089,15 @@
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="11" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" hidden="1">
       <c r="A57" s="12"/>
       <c r="B57" s="12" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>16</v>
@@ -19430,15 +19107,15 @@
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="11" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" hidden="1">
       <c r="A58" s="12"/>
       <c r="B58" s="12" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>16</v>
@@ -19448,12 +19125,12 @@
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="11" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" hidden="1">
       <c r="A59" s="12"/>
       <c r="B59" s="12" t="s">
         <v>51</v>
@@ -19473,10 +19150,10 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="8" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>16</v>
@@ -19486,9 +19163,11 @@
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="11" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G60" s="11"/>
+        <v>1105</v>
+      </c>
+      <c r="G60" s="67" t="s">
+        <v>1179</v>
+      </c>
       <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:8">
@@ -19504,9 +19183,11 @@
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="11" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G61" s="11"/>
+        <v>1112</v>
+      </c>
+      <c r="G61" s="67" t="s">
+        <v>1142</v>
+      </c>
       <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8">
@@ -19521,15 +19202,17 @@
         <v>30</v>
       </c>
       <c r="E62" s="12"/>
-      <c r="F62" s="11" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G62" s="11"/>
+      <c r="F62" s="67" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G62" s="67" t="s">
+        <v>1149</v>
+      </c>
       <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="8" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>776</v>
@@ -19542,12 +19225,14 @@
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="11" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G63" s="11"/>
+        <v>1114</v>
+      </c>
+      <c r="G63" s="67" t="s">
+        <v>1144</v>
+      </c>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" ht="27" spans="1:8">
+    <row r="64" spans="1:8" ht="27">
       <c r="A64" s="12"/>
       <c r="B64" s="12" t="s">
         <v>229</v>
@@ -19560,12 +19245,14 @@
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="11" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G64" s="11"/>
+        <v>1115</v>
+      </c>
+      <c r="G64" s="67" t="s">
+        <v>1150</v>
+      </c>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" ht="27" spans="1:8">
+    <row r="65" spans="1:8" ht="27">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
         <v>15</v>
@@ -19577,16 +19264,18 @@
         <v>30</v>
       </c>
       <c r="E65" s="12"/>
-      <c r="F65" s="11" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G65" s="11"/>
+      <c r="F65" s="67" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G65" s="67" t="s">
+        <v>1152</v>
+      </c>
       <c r="H65" s="12"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="12"/>
       <c r="B66" s="12" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>16</v>
@@ -19595,13 +19284,15 @@
         <v>30</v>
       </c>
       <c r="E66" s="12"/>
-      <c r="F66" s="11" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G66" s="11"/>
+      <c r="F66" s="67" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G66" s="67" t="s">
+        <v>1154</v>
+      </c>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" ht="27" spans="1:8">
+    <row r="67" spans="1:8" ht="27">
       <c r="A67" s="12"/>
       <c r="B67" s="12" t="s">
         <v>57</v>
@@ -19613,10 +19304,12 @@
         <v>30</v>
       </c>
       <c r="E67" s="12"/>
-      <c r="F67" s="11" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G67" s="11"/>
+      <c r="F67" s="67" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G67" s="67" t="s">
+        <v>1156</v>
+      </c>
       <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:8">
@@ -19631,15 +19324,17 @@
         <v>30</v>
       </c>
       <c r="E68" s="12"/>
-      <c r="F68" s="11" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G68" s="11"/>
+      <c r="F68" s="67" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G68" s="67" t="s">
+        <v>1158</v>
+      </c>
       <c r="H68" s="12"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="8" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>72</v>
@@ -19654,7 +19349,9 @@
       <c r="F69" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G69" s="11"/>
+      <c r="G69" s="67" t="s">
+        <v>1144</v>
+      </c>
       <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8">
@@ -19672,7 +19369,9 @@
       <c r="F70" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G70" s="11"/>
+      <c r="G70" s="67" t="s">
+        <v>1175</v>
+      </c>
       <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8">
@@ -19688,12 +19387,14 @@
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="11" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G71" s="11"/>
+        <v>1118</v>
+      </c>
+      <c r="G71" s="67" t="s">
+        <v>1159</v>
+      </c>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" ht="27" spans="1:8">
+    <row r="72" spans="1:8" ht="27">
       <c r="A72" s="12"/>
       <c r="B72" s="12" t="s">
         <v>105</v>
@@ -19705,16 +19406,18 @@
         <v>30</v>
       </c>
       <c r="E72" s="12"/>
-      <c r="F72" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G72" s="11"/>
+      <c r="F72" s="67" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G72" s="67" t="s">
+        <v>1173</v>
+      </c>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" ht="27" spans="1:8">
+    <row r="73" spans="1:8" ht="27">
       <c r="A73" s="12"/>
       <c r="B73" s="12" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>16</v>
@@ -19723,13 +19426,15 @@
         <v>30</v>
       </c>
       <c r="E73" s="12"/>
-      <c r="F73" s="11" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G73" s="11"/>
+      <c r="F73" s="67" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G73" s="67" t="s">
+        <v>1174</v>
+      </c>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" ht="27" spans="1:8">
+    <row r="74" spans="1:8" ht="27">
       <c r="A74" s="12"/>
       <c r="B74" s="12" t="s">
         <v>107</v>
@@ -19742,14 +19447,16 @@
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="11" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G74" s="11"/>
+        <v>1120</v>
+      </c>
+      <c r="G74" s="67" t="s">
+        <v>1170</v>
+      </c>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" ht="27" spans="1:8">
+    <row r="75" spans="1:8" ht="27" hidden="1">
       <c r="A75" s="8" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>148</v>
@@ -19761,19 +19468,19 @@
         <v>483</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" hidden="1">
       <c r="A76" s="8" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>39</v>
@@ -19785,19 +19492,19 @@
         <v>483</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="H76" s="12"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="8" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>72</v>
@@ -19812,10 +19519,12 @@
       <c r="F77" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G77" s="11"/>
+      <c r="G77" s="67" t="s">
+        <v>1144</v>
+      </c>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" ht="40.5" spans="1:8">
+    <row r="78" spans="1:8" ht="40.5">
       <c r="A78" s="12"/>
       <c r="B78" s="12" t="s">
         <v>75</v>
@@ -19830,7 +19539,9 @@
       <c r="F78" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G78" s="11"/>
+      <c r="G78" s="67" t="s">
+        <v>1169</v>
+      </c>
       <c r="H78" s="12"/>
     </row>
     <row r="79" spans="1:8">
@@ -19845,10 +19556,12 @@
         <v>30</v>
       </c>
       <c r="E79" s="12"/>
-      <c r="F79" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G79" s="11"/>
+      <c r="F79" s="67" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G79" s="67" t="s">
+        <v>1168</v>
+      </c>
       <c r="H79" s="12"/>
     </row>
     <row r="80" spans="1:8">
@@ -19863,10 +19576,12 @@
         <v>30</v>
       </c>
       <c r="E80" s="12"/>
-      <c r="F80" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G80" s="11"/>
+      <c r="F80" s="67" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G80" s="67" t="s">
+        <v>1166</v>
+      </c>
       <c r="H80" s="12"/>
     </row>
     <row r="81" spans="1:8">
@@ -19881,13 +19596,15 @@
         <v>30</v>
       </c>
       <c r="E81" s="12"/>
-      <c r="F81" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" s="11"/>
+      <c r="F81" s="67" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G81" s="67" t="s">
+        <v>1164</v>
+      </c>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" ht="27" spans="1:8">
+    <row r="82" spans="1:8" ht="27">
       <c r="A82" s="12"/>
       <c r="B82" s="12" t="s">
         <v>93</v>
@@ -19902,10 +19619,12 @@
       <c r="F82" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G82" s="11"/>
+      <c r="G82" s="67" t="s">
+        <v>1162</v>
+      </c>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" ht="27" spans="1:8">
+    <row r="83" spans="1:8" ht="27">
       <c r="A83" s="12"/>
       <c r="B83" s="12" t="s">
         <v>97</v>
@@ -19917,15 +19636,17 @@
         <v>30</v>
       </c>
       <c r="E83" s="12"/>
-      <c r="F83" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" s="11"/>
+      <c r="F83" s="67" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G83" s="67" t="s">
+        <v>1161</v>
+      </c>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" ht="27" spans="1:8">
+    <row r="84" spans="1:8" ht="27">
       <c r="A84" s="8" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>51</v>
@@ -19938,9 +19659,11 @@
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="11" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G84" s="11"/>
+        <v>1130</v>
+      </c>
+      <c r="G84" s="67" t="s">
+        <v>1147</v>
+      </c>
       <c r="H84" s="12"/>
     </row>
     <row r="85" spans="1:8">
@@ -19955,16 +19678,18 @@
         <v>30</v>
       </c>
       <c r="E85" s="12"/>
-      <c r="F85" s="11" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G85" s="11"/>
+      <c r="F85" s="67" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G85" s="67" t="s">
+        <v>1146</v>
+      </c>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" ht="54" spans="1:8">
+    <row r="86" spans="1:8" ht="54">
       <c r="A86" s="12"/>
       <c r="B86" s="12" t="s">
-        <v>1144</v>
+        <v>1131</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>16</v>
@@ -19974,15 +19699,17 @@
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="11" t="s">
-        <v>1145</v>
-      </c>
-      <c r="G86" s="11"/>
+        <v>1132</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>1132</v>
+      </c>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" ht="67.5" spans="1:8">
+    <row r="87" spans="1:8" ht="67.5">
       <c r="A87" s="12"/>
       <c r="B87" s="12" t="s">
-        <v>1146</v>
+        <v>1133</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>16</v>
@@ -19992,27 +19719,34 @@
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="11" t="s">
-        <v>1147</v>
-      </c>
-      <c r="G87" s="11"/>
+        <v>1134</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>1134</v>
+      </c>
       <c r="H87" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3"/>
+  <autoFilter ref="A1:F87">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="冯银鹏"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D12 D13 D14 D24 D25 D28 D31 D34 D37 D38 D41 D42 D43 D49 D76 D77 D7:D11 D15:D17 D18:D23 D26:D27 D29:D30 D32:D33 D35:D36 D39:D40 D44:D48 D50:D53 D54:D55 D56:D59 D60:D68 D69:D75 D78:D84 D85:D87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D87">
       <formula1>"蒙先铭,姚海强,冯银鹏,田志敏"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -20021,8 +19755,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/enum/枚举的注释说明.xlsx
+++ b/docs/enum/枚举的注释说明.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="5445" activeTab="1"/>
@@ -12,18 +12,17 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acct!$A$1:$F$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acct!$A$1:$F$80</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mogoroomdb!$A$1:$F$413</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="1198">
   <si>
     <t>表名</t>
   </si>
@@ -7407,9 +7406,6 @@
     <t>sign_type</t>
   </si>
   <si>
-    <t>DSA、RSA、MD5 三个值可选，必须大写</t>
-  </si>
-  <si>
     <t>acct_bill</t>
   </si>
   <si>
@@ -7479,15 +7475,6 @@
     <t>acct_busirec</t>
   </si>
   <si>
-    <t>acct_check</t>
-  </si>
-  <si>
-    <t>updateBy</t>
-  </si>
-  <si>
-    <t>更新人</t>
-  </si>
-  <si>
     <t>verified</t>
   </si>
   <si>
@@ -7503,9 +7490,6 @@
     <t>对账类型 余额 资金 业务</t>
   </si>
   <si>
-    <t>acct_checkacctfunddetail</t>
-  </si>
-  <si>
     <t>是否已经审核</t>
   </si>
   <si>
@@ -7519,21 +7503,6 @@
   </si>
   <si>
     <t>余额错误类型</t>
-  </si>
-  <si>
-    <t>acct_checkbillfunddetail</t>
-  </si>
-  <si>
-    <t>acct_checkbilltradedetail</t>
-  </si>
-  <si>
-    <t>acct_checkbizdetail</t>
-  </si>
-  <si>
-    <t>acct_checktradedetail</t>
-  </si>
-  <si>
-    <t>acct_checkwaterdetail</t>
   </si>
   <si>
     <t>acct_fundtype</t>
@@ -7682,10 +7651,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>更新人</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>操作渠道(参考字典表组名:channel)</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -7940,13 +7905,143 @@
   </si>
   <si>
     <t>签名类型（RSA:RSA MD5:MD5）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cct_check</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>acct_checkacctfunddetail</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>acct_checkbillfunddetail</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金渠道(1:快钱 2:支付宝 3:微信 5:拉卡拉 6:余额 7:现金)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付渠道(2001:支付宝 3001:微信)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型(0:房东 1:联系人 2:保洁 3:维修 4:租客 5:员工 6:入住人  7:子账号)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSA、RSA、MD5 三个值可选，必须大写</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密类型(DSA:DSA RSA:RSA MD5:MD5)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态(0:未审核 1：已审核)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>对账类型(1:支付系统 2:资金流水 3:帐务流水与资金流水 4:帐务流水与账单 5:帐务资金余额 6:业务系统订单状态)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复状态(0:未修复 1:已修复)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>acct_checkbilltradedetail</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>acct_checkbizdetail</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>acct_checktradedetail</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>acct_checkwaterdetail</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>状态(0:无效 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:有效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态(0:未审核 1:已审核)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑名单类型(1:帐户冻结)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态(0:无效 1:有效)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类型(参考comm_busitype表)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>密码类型(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1:登录密码)</t>
+    </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -8594,7 +8689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9314,7 +9409,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="409.6">
+    <row r="32" spans="1:7">
       <c r="A32" s="34" t="s">
         <v>109</v>
       </c>
@@ -9383,7 +9478,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="409.6">
+    <row r="35" spans="1:7">
       <c r="A35" s="22" t="s">
         <v>109</v>
       </c>
@@ -9429,7 +9524,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="409.6">
+    <row r="37" spans="1:7">
       <c r="A37" s="22" t="s">
         <v>125</v>
       </c>
@@ -9452,7 +9547,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="409.6">
+    <row r="38" spans="1:7">
       <c r="A38" s="22" t="s">
         <v>125</v>
       </c>
@@ -9475,7 +9570,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="409.6">
+    <row r="39" spans="1:7">
       <c r="A39" s="22" t="s">
         <v>136</v>
       </c>
@@ -9498,7 +9593,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="17" customFormat="1" ht="409.6">
+    <row r="40" spans="1:7" s="17" customFormat="1">
       <c r="A40" s="37" t="s">
         <v>136</v>
       </c>
@@ -9519,7 +9614,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="409.6">
+    <row r="41" spans="1:7">
       <c r="A41" s="22" t="s">
         <v>136</v>
       </c>
@@ -9542,7 +9637,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="409.6">
+    <row r="42" spans="1:7">
       <c r="A42" s="22" t="s">
         <v>136</v>
       </c>
@@ -9565,7 +9660,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="409.6">
+    <row r="43" spans="1:7">
       <c r="A43" s="22" t="s">
         <v>136</v>
       </c>
@@ -9588,7 +9683,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="409.6">
+    <row r="44" spans="1:7">
       <c r="A44" s="34" t="s">
         <v>136</v>
       </c>
@@ -9611,7 +9706,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="409.6">
+    <row r="45" spans="1:7">
       <c r="A45" s="22" t="s">
         <v>136</v>
       </c>
@@ -9634,7 +9729,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="409.6">
+    <row r="46" spans="1:7">
       <c r="A46" s="22" t="s">
         <v>158</v>
       </c>
@@ -9657,7 +9752,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="409.6">
+    <row r="47" spans="1:7">
       <c r="A47" s="22" t="s">
         <v>158</v>
       </c>
@@ -9680,7 +9775,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="409.6">
+    <row r="48" spans="1:7">
       <c r="A48" s="22" t="s">
         <v>158</v>
       </c>
@@ -9703,7 +9798,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="409.6">
+    <row r="49" spans="1:8">
       <c r="A49" s="22" t="s">
         <v>165</v>
       </c>
@@ -9724,7 +9819,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="409.6">
+    <row r="50" spans="1:8">
       <c r="A50" s="22" t="s">
         <v>165</v>
       </c>
@@ -9745,7 +9840,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="16" customFormat="1" ht="409.6">
+    <row r="51" spans="1:8" s="16" customFormat="1">
       <c r="A51" s="29" t="s">
         <v>171</v>
       </c>
@@ -9769,7 +9864,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="16" customFormat="1" ht="409.6">
+    <row r="52" spans="1:8" s="16" customFormat="1">
       <c r="A52" s="29" t="s">
         <v>171</v>
       </c>
@@ -9793,7 +9888,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="409.6">
+    <row r="53" spans="1:8">
       <c r="A53" s="41" t="s">
         <v>177</v>
       </c>
@@ -9817,7 +9912,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="409.6">
+    <row r="54" spans="1:8">
       <c r="A54" s="22" t="s">
         <v>177</v>
       </c>
@@ -9861,7 +9956,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="409.6">
+    <row r="56" spans="1:8">
       <c r="A56" s="22" t="s">
         <v>186</v>
       </c>
@@ -9924,7 +10019,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="409.6">
+    <row r="59" spans="1:8">
       <c r="A59" s="22" t="s">
         <v>195</v>
       </c>
@@ -9945,7 +10040,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="409.6">
+    <row r="60" spans="1:8">
       <c r="A60" s="22" t="s">
         <v>195</v>
       </c>
@@ -10008,7 +10103,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="409.6">
+    <row r="63" spans="1:8">
       <c r="A63" s="22" t="s">
         <v>198</v>
       </c>
@@ -10071,7 +10166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="409.6">
+    <row r="66" spans="1:7">
       <c r="A66" s="22" t="s">
         <v>199</v>
       </c>
@@ -10094,7 +10189,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="409.6">
+    <row r="67" spans="1:7">
       <c r="A67" s="22" t="s">
         <v>199</v>
       </c>
@@ -10163,7 +10258,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="409.6">
+    <row r="70" spans="1:7">
       <c r="A70" s="22" t="s">
         <v>199</v>
       </c>
@@ -10207,7 +10302,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="409.6">
+    <row r="72" spans="1:7">
       <c r="A72" s="22" t="s">
         <v>217</v>
       </c>
@@ -10316,7 +10411,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="409.6">
+    <row r="77" spans="1:7">
       <c r="A77" s="22" t="s">
         <v>233</v>
       </c>
@@ -10400,7 +10495,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="409.6">
+    <row r="81" spans="1:7">
       <c r="A81" s="22" t="s">
         <v>233</v>
       </c>
@@ -10421,7 +10516,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="16" customFormat="1" ht="409.6">
+    <row r="82" spans="1:7" s="16" customFormat="1">
       <c r="A82" s="29" t="s">
         <v>238</v>
       </c>
@@ -10442,7 +10537,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="16" customFormat="1" ht="409.6">
+    <row r="83" spans="1:7" s="16" customFormat="1">
       <c r="A83" s="29" t="s">
         <v>238</v>
       </c>
@@ -10509,7 +10604,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="409.6">
+    <row r="86" spans="1:7">
       <c r="A86" s="22" t="s">
         <v>253</v>
       </c>
@@ -10532,7 +10627,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="409.6">
+    <row r="87" spans="1:7">
       <c r="A87" s="22" t="s">
         <v>256</v>
       </c>
@@ -10555,7 +10650,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="409.6">
+    <row r="88" spans="1:7">
       <c r="A88" s="22" t="s">
         <v>258</v>
       </c>
@@ -10576,7 +10671,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="409.6">
+    <row r="89" spans="1:7">
       <c r="A89" s="22" t="s">
         <v>258</v>
       </c>
@@ -10597,7 +10692,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="409.6">
+    <row r="90" spans="1:7">
       <c r="A90" s="22" t="s">
         <v>261</v>
       </c>
@@ -10643,7 +10738,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="409.6">
+    <row r="92" spans="1:7">
       <c r="A92" s="22" t="s">
         <v>261</v>
       </c>
@@ -10710,7 +10805,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="409.6">
+    <row r="95" spans="1:7">
       <c r="A95" s="22" t="s">
         <v>278</v>
       </c>
@@ -10733,7 +10828,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="409.6">
+    <row r="96" spans="1:7">
       <c r="A96" s="22" t="s">
         <v>278</v>
       </c>
@@ -10756,7 +10851,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="17" customFormat="1" ht="409.6">
+    <row r="97" spans="1:7" s="17" customFormat="1">
       <c r="A97" s="37" t="s">
         <v>284</v>
       </c>
@@ -10779,7 +10874,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="409.6">
+    <row r="98" spans="1:7">
       <c r="A98" s="22" t="s">
         <v>284</v>
       </c>
@@ -10802,7 +10897,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="409.6">
+    <row r="99" spans="1:7">
       <c r="A99" s="22" t="s">
         <v>284</v>
       </c>
@@ -10825,7 +10920,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="409.6">
+    <row r="100" spans="1:7">
       <c r="A100" s="22" t="s">
         <v>284</v>
       </c>
@@ -10848,7 +10943,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="409.6">
+    <row r="101" spans="1:7">
       <c r="A101" s="22" t="s">
         <v>299</v>
       </c>
@@ -10871,7 +10966,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="17" customFormat="1" ht="409.6">
+    <row r="102" spans="1:7" s="17" customFormat="1">
       <c r="A102" s="37" t="s">
         <v>299</v>
       </c>
@@ -10894,7 +10989,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="17" customFormat="1" ht="409.6">
+    <row r="103" spans="1:7" s="17" customFormat="1">
       <c r="A103" s="37" t="s">
         <v>299</v>
       </c>
@@ -10917,7 +11012,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="409.6">
+    <row r="104" spans="1:7">
       <c r="A104" s="22" t="s">
         <v>305</v>
       </c>
@@ -10940,7 +11035,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="17" customFormat="1" ht="409.6">
+    <row r="105" spans="1:7" s="17" customFormat="1">
       <c r="A105" s="37" t="s">
         <v>310</v>
       </c>
@@ -10963,7 +11058,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="409.6">
+    <row r="106" spans="1:7">
       <c r="A106" s="22" t="s">
         <v>310</v>
       </c>
@@ -10986,7 +11081,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="409.6">
+    <row r="107" spans="1:7">
       <c r="A107" s="22" t="s">
         <v>310</v>
       </c>
@@ -11009,7 +11104,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="17" customFormat="1" ht="409.6">
+    <row r="108" spans="1:7" s="17" customFormat="1">
       <c r="A108" s="37" t="s">
         <v>314</v>
       </c>
@@ -11032,7 +11127,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="18" customFormat="1" ht="409.6">
+    <row r="109" spans="1:7" s="18" customFormat="1">
       <c r="A109" s="18" t="s">
         <v>317</v>
       </c>
@@ -11055,7 +11150,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="409.6">
+    <row r="110" spans="1:7">
       <c r="A110" s="22" t="s">
         <v>317</v>
       </c>
@@ -11099,7 +11194,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="409.6">
+    <row r="112" spans="1:7">
       <c r="A112" s="22" t="s">
         <v>317</v>
       </c>
@@ -11122,7 +11217,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="17" customFormat="1" ht="409.6">
+    <row r="113" spans="1:7" s="17" customFormat="1">
       <c r="A113" s="37" t="s">
         <v>327</v>
       </c>
@@ -11145,7 +11240,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="409.6">
+    <row r="114" spans="1:7">
       <c r="A114" s="22" t="s">
         <v>330</v>
       </c>
@@ -11168,7 +11263,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="409.6">
+    <row r="115" spans="1:7">
       <c r="A115" s="22" t="s">
         <v>330</v>
       </c>
@@ -11191,7 +11286,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="409.6">
+    <row r="116" spans="1:7">
       <c r="A116" s="22" t="s">
         <v>335</v>
       </c>
@@ -11237,7 +11332,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="409.6">
+    <row r="118" spans="1:7">
       <c r="A118" s="22" t="s">
         <v>335</v>
       </c>
@@ -11260,7 +11355,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="409.6">
+    <row r="119" spans="1:7">
       <c r="A119" s="22" t="s">
         <v>345</v>
       </c>
@@ -11283,7 +11378,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="409.6">
+    <row r="120" spans="1:7">
       <c r="A120" s="22" t="s">
         <v>345</v>
       </c>
@@ -11306,7 +11401,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="409.6">
+    <row r="121" spans="1:7">
       <c r="A121" s="22" t="s">
         <v>345</v>
       </c>
@@ -11329,7 +11424,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="409.6">
+    <row r="122" spans="1:7">
       <c r="A122" s="22" t="s">
         <v>345</v>
       </c>
@@ -11352,7 +11447,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="409.6">
+    <row r="123" spans="1:7">
       <c r="A123" s="22" t="s">
         <v>345</v>
       </c>
@@ -11375,7 +11470,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="409.6">
+    <row r="124" spans="1:7">
       <c r="A124" s="22" t="s">
         <v>345</v>
       </c>
@@ -11398,7 +11493,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="409.6">
+    <row r="125" spans="1:7">
       <c r="A125" s="22" t="s">
         <v>345</v>
       </c>
@@ -11490,7 +11585,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="409.6">
+    <row r="129" spans="1:8">
       <c r="A129" s="22" t="s">
         <v>345</v>
       </c>
@@ -11513,7 +11608,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="409.6">
+    <row r="130" spans="1:8">
       <c r="A130" s="22" t="s">
         <v>379</v>
       </c>
@@ -11536,7 +11631,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="409.6">
+    <row r="131" spans="1:8">
       <c r="A131" s="41" t="s">
         <v>379</v>
       </c>
@@ -11560,7 +11655,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="409.6">
+    <row r="132" spans="1:8">
       <c r="A132" s="22" t="s">
         <v>379</v>
       </c>
@@ -11583,7 +11678,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="409.6">
+    <row r="133" spans="1:8">
       <c r="A133" s="22" t="s">
         <v>379</v>
       </c>
@@ -11606,7 +11701,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="409.6">
+    <row r="134" spans="1:8">
       <c r="A134" s="22" t="s">
         <v>379</v>
       </c>
@@ -11629,7 +11724,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="409.6">
+    <row r="135" spans="1:8">
       <c r="A135" s="22" t="s">
         <v>379</v>
       </c>
@@ -11652,7 +11747,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="409.6">
+    <row r="136" spans="1:8">
       <c r="A136" s="22" t="s">
         <v>379</v>
       </c>
@@ -11744,7 +11839,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="409.6">
+    <row r="140" spans="1:8">
       <c r="A140" s="22" t="s">
         <v>379</v>
       </c>
@@ -11767,7 +11862,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="409.6">
+    <row r="141" spans="1:8">
       <c r="A141" s="22" t="s">
         <v>394</v>
       </c>
@@ -11790,7 +11885,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="409.6">
+    <row r="142" spans="1:8">
       <c r="A142" s="22" t="s">
         <v>397</v>
       </c>
@@ -11813,7 +11908,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="409.6">
+    <row r="143" spans="1:8">
       <c r="A143" s="22" t="s">
         <v>397</v>
       </c>
@@ -11859,7 +11954,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="409.6">
+    <row r="145" spans="1:7">
       <c r="A145" s="22" t="s">
         <v>404</v>
       </c>
@@ -11882,7 +11977,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="409.6">
+    <row r="146" spans="1:7">
       <c r="A146" s="22" t="s">
         <v>404</v>
       </c>
@@ -11928,7 +12023,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="409.6">
+    <row r="148" spans="1:7">
       <c r="A148" s="22" t="s">
         <v>411</v>
       </c>
@@ -11974,7 +12069,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="409.6">
+    <row r="150" spans="1:7">
       <c r="A150" s="22" t="s">
         <v>418</v>
       </c>
@@ -12020,7 +12115,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="409.6">
+    <row r="152" spans="1:7">
       <c r="A152" s="22" t="s">
         <v>418</v>
       </c>
@@ -12112,7 +12207,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="409.6">
+    <row r="156" spans="1:7">
       <c r="A156" s="22" t="s">
         <v>418</v>
       </c>
@@ -12181,7 +12276,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="409.6">
+    <row r="159" spans="1:7">
       <c r="A159" s="22" t="s">
         <v>445</v>
       </c>
@@ -12204,7 +12299,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="409.6">
+    <row r="160" spans="1:7">
       <c r="A160" s="22" t="s">
         <v>445</v>
       </c>
@@ -12227,7 +12322,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="409.6">
+    <row r="161" spans="1:7">
       <c r="A161" s="22" t="s">
         <v>454</v>
       </c>
@@ -12273,7 +12368,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="409.6">
+    <row r="163" spans="1:7">
       <c r="A163" s="22" t="s">
         <v>454</v>
       </c>
@@ -12342,7 +12437,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="409.6">
+    <row r="166" spans="1:7">
       <c r="A166" s="22" t="s">
         <v>466</v>
       </c>
@@ -12388,7 +12483,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="409.6">
+    <row r="168" spans="1:7">
       <c r="A168" s="22" t="s">
         <v>466</v>
       </c>
@@ -12457,7 +12552,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="409.6">
+    <row r="171" spans="1:7">
       <c r="A171" s="22" t="s">
         <v>466</v>
       </c>
@@ -12526,7 +12621,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="409.6">
+    <row r="174" spans="1:7">
       <c r="A174" s="22" t="s">
         <v>473</v>
       </c>
@@ -12549,7 +12644,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="409.6">
+    <row r="175" spans="1:7">
       <c r="A175" s="22" t="s">
         <v>476</v>
       </c>
@@ -12572,7 +12667,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="409.6">
+    <row r="176" spans="1:7">
       <c r="A176" s="22" t="s">
         <v>476</v>
       </c>
@@ -12595,7 +12690,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="409.6">
+    <row r="177" spans="1:8">
       <c r="A177" s="22" t="s">
         <v>482</v>
       </c>
@@ -12614,7 +12709,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="409.6">
+    <row r="178" spans="1:8">
       <c r="A178" s="22" t="s">
         <v>482</v>
       </c>
@@ -12633,7 +12728,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="409.6">
+    <row r="179" spans="1:8">
       <c r="A179" s="22" t="s">
         <v>482</v>
       </c>
@@ -12652,7 +12747,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="409.6">
+    <row r="180" spans="1:8">
       <c r="A180" s="22" t="s">
         <v>482</v>
       </c>
@@ -12671,7 +12766,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="409.6">
+    <row r="181" spans="1:8">
       <c r="A181" s="22" t="s">
         <v>482</v>
       </c>
@@ -12711,7 +12806,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="409.6">
+    <row r="183" spans="1:8">
       <c r="A183" s="22" t="s">
         <v>489</v>
       </c>
@@ -12730,7 +12825,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="409.6">
+    <row r="184" spans="1:8">
       <c r="A184" s="22" t="s">
         <v>489</v>
       </c>
@@ -12749,7 +12844,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="409.6">
+    <row r="185" spans="1:8">
       <c r="A185" s="22" t="s">
         <v>489</v>
       </c>
@@ -12768,7 +12863,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="409.6">
+    <row r="186" spans="1:8">
       <c r="A186" s="22" t="s">
         <v>489</v>
       </c>
@@ -12787,7 +12882,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="409.6">
+    <row r="187" spans="1:8">
       <c r="A187" s="22" t="s">
         <v>489</v>
       </c>
@@ -12827,7 +12922,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="409.6">
+    <row r="189" spans="1:8">
       <c r="A189" s="22" t="s">
         <v>492</v>
       </c>
@@ -12888,7 +12983,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="409.6">
+    <row r="192" spans="1:8">
       <c r="A192" s="52" t="s">
         <v>502</v>
       </c>
@@ -12934,7 +13029,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="409.6">
+    <row r="194" spans="1:8">
       <c r="A194" s="52" t="s">
         <v>505</v>
       </c>
@@ -12958,7 +13053,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="409.6">
+    <row r="195" spans="1:8">
       <c r="A195" s="52" t="s">
         <v>505</v>
       </c>
@@ -13030,7 +13125,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="409.6">
+    <row r="198" spans="1:8">
       <c r="A198" s="52" t="s">
         <v>505</v>
       </c>
@@ -13054,7 +13149,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="409.6">
+    <row r="199" spans="1:8">
       <c r="A199" s="52" t="s">
         <v>505</v>
       </c>
@@ -13078,7 +13173,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="409.6">
+    <row r="200" spans="1:8">
       <c r="A200" s="52" t="s">
         <v>505</v>
       </c>
@@ -13102,7 +13197,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="409.6">
+    <row r="201" spans="1:8">
       <c r="A201" s="52" t="s">
         <v>505</v>
       </c>
@@ -13126,7 +13221,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="409.6">
+    <row r="202" spans="1:8">
       <c r="A202" s="52" t="s">
         <v>505</v>
       </c>
@@ -13150,7 +13245,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="409.6">
+    <row r="203" spans="1:8">
       <c r="A203" s="22" t="s">
         <v>517</v>
       </c>
@@ -13196,7 +13291,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="409.6">
+    <row r="205" spans="1:8">
       <c r="A205" s="22" t="s">
         <v>517</v>
       </c>
@@ -13242,7 +13337,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="409.6">
+    <row r="207" spans="1:8">
       <c r="A207" s="22" t="s">
         <v>517</v>
       </c>
@@ -13265,7 +13360,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="409.6">
+    <row r="208" spans="1:8">
       <c r="A208" s="22" t="s">
         <v>517</v>
       </c>
@@ -13288,7 +13383,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="409.6">
+    <row r="209" spans="1:7">
       <c r="A209" s="22" t="s">
         <v>517</v>
       </c>
@@ -13311,7 +13406,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="409.6">
+    <row r="210" spans="1:7">
       <c r="A210" s="22" t="s">
         <v>537</v>
       </c>
@@ -13334,7 +13429,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="409.6">
+    <row r="211" spans="1:7">
       <c r="A211" s="22" t="s">
         <v>537</v>
       </c>
@@ -13357,7 +13452,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="409.6">
+    <row r="212" spans="1:7">
       <c r="A212" s="22" t="s">
         <v>545</v>
       </c>
@@ -13403,7 +13498,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="409.6">
+    <row r="214" spans="1:7">
       <c r="A214" s="22" t="s">
         <v>546</v>
       </c>
@@ -13426,7 +13521,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="409.6">
+    <row r="215" spans="1:7">
       <c r="A215" s="22" t="s">
         <v>546</v>
       </c>
@@ -13449,7 +13544,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="409.6">
+    <row r="216" spans="1:7">
       <c r="A216" s="22" t="s">
         <v>546</v>
       </c>
@@ -13495,7 +13590,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="409.6">
+    <row r="218" spans="1:7">
       <c r="A218" s="22" t="s">
         <v>558</v>
       </c>
@@ -13518,7 +13613,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="409.6">
+    <row r="219" spans="1:7">
       <c r="A219" s="22" t="s">
         <v>562</v>
       </c>
@@ -13541,7 +13636,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="409.6">
+    <row r="220" spans="1:7">
       <c r="A220" s="22" t="s">
         <v>565</v>
       </c>
@@ -13564,7 +13659,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="409.6">
+    <row r="221" spans="1:7">
       <c r="A221" s="22" t="s">
         <v>568</v>
       </c>
@@ -13610,7 +13705,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="409.6">
+    <row r="223" spans="1:7">
       <c r="A223" s="22" t="s">
         <v>570</v>
       </c>
@@ -13679,7 +13774,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="409.6">
+    <row r="226" spans="1:7">
       <c r="A226" s="22" t="s">
         <v>570</v>
       </c>
@@ -13702,7 +13797,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="409.6">
+    <row r="227" spans="1:7">
       <c r="A227" s="22" t="s">
         <v>584</v>
       </c>
@@ -13725,7 +13820,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="409.6">
+    <row r="228" spans="1:7">
       <c r="A228" s="22" t="s">
         <v>584</v>
       </c>
@@ -13748,7 +13843,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="409.6">
+    <row r="229" spans="1:7">
       <c r="A229" s="22" t="s">
         <v>584</v>
       </c>
@@ -13771,7 +13866,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="409.6">
+    <row r="230" spans="1:7">
       <c r="A230" s="22" t="s">
         <v>593</v>
       </c>
@@ -13794,7 +13889,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="409.6">
+    <row r="231" spans="1:7">
       <c r="A231" s="22" t="s">
         <v>593</v>
       </c>
@@ -13817,7 +13912,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="409.6">
+    <row r="232" spans="1:7">
       <c r="A232" s="22" t="s">
         <v>594</v>
       </c>
@@ -13838,7 +13933,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="409.6">
+    <row r="233" spans="1:7">
       <c r="A233" s="22" t="s">
         <v>594</v>
       </c>
@@ -13859,7 +13954,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="409.6">
+    <row r="234" spans="1:7">
       <c r="A234" s="22" t="s">
         <v>601</v>
       </c>
@@ -13905,7 +14000,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="409.6">
+    <row r="236" spans="1:7">
       <c r="A236" s="22" t="s">
         <v>609</v>
       </c>
@@ -13928,7 +14023,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="409.6">
+    <row r="237" spans="1:7">
       <c r="A237" s="22" t="s">
         <v>612</v>
       </c>
@@ -13951,7 +14046,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="409.6">
+    <row r="238" spans="1:7">
       <c r="A238" s="22" t="s">
         <v>612</v>
       </c>
@@ -13974,7 +14069,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="409.6">
+    <row r="239" spans="1:7">
       <c r="A239" s="22" t="s">
         <v>619</v>
       </c>
@@ -14043,7 +14138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="409.6">
+    <row r="242" spans="1:7">
       <c r="A242" s="22" t="s">
         <v>625</v>
       </c>
@@ -14089,7 +14184,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="409.6">
+    <row r="244" spans="1:7">
       <c r="A244" s="22" t="s">
         <v>631</v>
       </c>
@@ -14112,7 +14207,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="409.6">
+    <row r="245" spans="1:7">
       <c r="A245" s="22" t="s">
         <v>635</v>
       </c>
@@ -14135,7 +14230,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="409.6">
+    <row r="246" spans="1:7">
       <c r="A246" s="22" t="s">
         <v>635</v>
       </c>
@@ -14158,7 +14253,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="409.6">
+    <row r="247" spans="1:7">
       <c r="A247" s="22" t="s">
         <v>635</v>
       </c>
@@ -14202,7 +14297,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="409.6">
+    <row r="249" spans="1:7">
       <c r="A249" s="22" t="s">
         <v>642</v>
       </c>
@@ -14225,7 +14320,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="409.6">
+    <row r="250" spans="1:7">
       <c r="A250" s="22" t="s">
         <v>644</v>
       </c>
@@ -14269,7 +14364,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="409.6">
+    <row r="252" spans="1:7">
       <c r="A252" s="22" t="s">
         <v>650</v>
       </c>
@@ -14334,7 +14429,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="409.6">
+    <row r="255" spans="1:7">
       <c r="A255" s="22" t="s">
         <v>657</v>
       </c>
@@ -14353,7 +14448,7 @@
       </c>
       <c r="G255" s="23"/>
     </row>
-    <row r="256" spans="1:7" ht="409.6">
+    <row r="256" spans="1:7">
       <c r="A256" s="22" t="s">
         <v>657</v>
       </c>
@@ -14372,7 +14467,7 @@
       </c>
       <c r="G256" s="23"/>
     </row>
-    <row r="257" spans="1:7" ht="409.6">
+    <row r="257" spans="1:7">
       <c r="A257" s="22" t="s">
         <v>657</v>
       </c>
@@ -14391,7 +14486,7 @@
       </c>
       <c r="G257" s="23"/>
     </row>
-    <row r="258" spans="1:7" ht="409.6">
+    <row r="258" spans="1:7">
       <c r="A258" s="22" t="s">
         <v>657</v>
       </c>
@@ -14412,7 +14507,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="409.6">
+    <row r="259" spans="1:7">
       <c r="A259" s="22" t="s">
         <v>666</v>
       </c>
@@ -14433,7 +14528,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="409.6">
+    <row r="260" spans="1:7">
       <c r="A260" s="22" t="s">
         <v>670</v>
       </c>
@@ -14496,7 +14591,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="409.6">
+    <row r="263" spans="1:7">
       <c r="A263" s="22" t="s">
         <v>680</v>
       </c>
@@ -14540,7 +14635,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="409.6">
+    <row r="265" spans="1:7">
       <c r="A265" s="22" t="s">
         <v>683</v>
       </c>
@@ -14584,7 +14679,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="409.6">
+    <row r="267" spans="1:7">
       <c r="A267" s="22" t="s">
         <v>690</v>
       </c>
@@ -14653,7 +14748,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="270" spans="1:7" s="19" customFormat="1" ht="409.6">
+    <row r="270" spans="1:7" s="19" customFormat="1">
       <c r="A270" s="60" t="s">
         <v>694</v>
       </c>
@@ -14674,7 +14769,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="271" spans="1:7" s="19" customFormat="1" ht="409.6">
+    <row r="271" spans="1:7" s="19" customFormat="1">
       <c r="A271" s="60" t="s">
         <v>697</v>
       </c>
@@ -14695,7 +14790,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="272" spans="1:7" s="19" customFormat="1" ht="409.6">
+    <row r="272" spans="1:7" s="19" customFormat="1">
       <c r="A272" s="60" t="s">
         <v>697</v>
       </c>
@@ -14716,7 +14811,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="409.6">
+    <row r="273" spans="1:7">
       <c r="A273" s="22" t="s">
         <v>701</v>
       </c>
@@ -14739,7 +14834,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="409.6">
+    <row r="274" spans="1:7">
       <c r="A274" s="22" t="s">
         <v>704</v>
       </c>
@@ -14785,7 +14880,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="409.6">
+    <row r="276" spans="1:7">
       <c r="A276" s="22" t="s">
         <v>705</v>
       </c>
@@ -14829,7 +14924,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="409.6">
+    <row r="278" spans="1:7">
       <c r="A278" s="22" t="s">
         <v>709</v>
       </c>
@@ -14852,7 +14947,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="409.6">
+    <row r="279" spans="1:7">
       <c r="A279" s="22" t="s">
         <v>709</v>
       </c>
@@ -14875,7 +14970,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="280" spans="1:7" s="19" customFormat="1" ht="409.6">
+    <row r="280" spans="1:7" s="19" customFormat="1">
       <c r="A280" s="60" t="s">
         <v>716</v>
       </c>
@@ -14898,7 +14993,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="409.6">
+    <row r="281" spans="1:7">
       <c r="A281" s="22" t="s">
         <v>718</v>
       </c>
@@ -14967,7 +15062,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="409.6">
+    <row r="284" spans="1:7">
       <c r="A284" s="22" t="s">
         <v>718</v>
       </c>
@@ -15013,7 +15108,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="409.6">
+    <row r="286" spans="1:7">
       <c r="A286" s="22" t="s">
         <v>727</v>
       </c>
@@ -15036,7 +15131,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="409.6">
+    <row r="287" spans="1:7">
       <c r="A287" s="22" t="s">
         <v>727</v>
       </c>
@@ -15082,7 +15177,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="409.6">
+    <row r="289" spans="1:8">
       <c r="A289" s="22" t="s">
         <v>734</v>
       </c>
@@ -15105,7 +15200,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="409.6">
+    <row r="290" spans="1:8">
       <c r="A290" s="22" t="s">
         <v>738</v>
       </c>
@@ -15128,7 +15223,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="409.6">
+    <row r="291" spans="1:8">
       <c r="A291" s="22" t="s">
         <v>741</v>
       </c>
@@ -15197,7 +15292,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="409.6">
+    <row r="294" spans="1:8">
       <c r="A294" s="22" t="s">
         <v>750</v>
       </c>
@@ -15243,7 +15338,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="409.6">
+    <row r="296" spans="1:8">
       <c r="A296" s="22" t="s">
         <v>750</v>
       </c>
@@ -15266,7 +15361,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="409.6">
+    <row r="297" spans="1:8">
       <c r="A297" s="22" t="s">
         <v>756</v>
       </c>
@@ -15315,7 +15410,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="409.6">
+    <row r="299" spans="1:8">
       <c r="A299" s="22" t="s">
         <v>760</v>
       </c>
@@ -15407,7 +15502,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="409.6">
+    <row r="303" spans="1:8">
       <c r="A303" s="22" t="s">
         <v>779</v>
       </c>
@@ -15453,7 +15548,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="409.6">
+    <row r="305" spans="1:7">
       <c r="A305" s="22" t="s">
         <v>785</v>
       </c>
@@ -15499,7 +15594,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="307" spans="1:7" s="17" customFormat="1" ht="409.6">
+    <row r="307" spans="1:7" s="17" customFormat="1">
       <c r="A307" s="37" t="s">
         <v>792</v>
       </c>
@@ -15522,7 +15617,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="409.6">
+    <row r="308" spans="1:7">
       <c r="A308" s="22" t="s">
         <v>792</v>
       </c>
@@ -15568,7 +15663,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="409.6">
+    <row r="310" spans="1:7">
       <c r="A310" s="22" t="s">
         <v>797</v>
       </c>
@@ -15614,7 +15709,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="409.6">
+    <row r="312" spans="1:7">
       <c r="A312" s="22" t="s">
         <v>807</v>
       </c>
@@ -15637,7 +15732,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="409.6">
+    <row r="313" spans="1:7">
       <c r="A313" s="22" t="s">
         <v>809</v>
       </c>
@@ -15660,7 +15755,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="409.6">
+    <row r="314" spans="1:7">
       <c r="A314" s="22" t="s">
         <v>809</v>
       </c>
@@ -15683,7 +15778,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="409.6">
+    <row r="315" spans="1:7">
       <c r="A315" s="22" t="s">
         <v>814</v>
       </c>
@@ -15706,7 +15801,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="409.6">
+    <row r="316" spans="1:7">
       <c r="A316" s="22" t="s">
         <v>814</v>
       </c>
@@ -15729,7 +15824,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="409.6">
+    <row r="317" spans="1:7">
       <c r="A317" s="22" t="s">
         <v>819</v>
       </c>
@@ -15752,7 +15847,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="409.6">
+    <row r="318" spans="1:7">
       <c r="A318" s="22" t="s">
         <v>820</v>
       </c>
@@ -15775,7 +15870,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="409.6">
+    <row r="319" spans="1:7">
       <c r="A319" s="22" t="s">
         <v>820</v>
       </c>
@@ -15798,7 +15893,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="409.6">
+    <row r="320" spans="1:7">
       <c r="A320" s="22" t="s">
         <v>823</v>
       </c>
@@ -15821,7 +15916,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="409.6">
+    <row r="321" spans="1:7">
       <c r="A321" s="41" t="s">
         <v>824</v>
       </c>
@@ -15844,7 +15939,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="409.6">
+    <row r="322" spans="1:7">
       <c r="A322" s="41" t="s">
         <v>826</v>
       </c>
@@ -15867,7 +15962,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="323" spans="1:7" s="19" customFormat="1" ht="409.6">
+    <row r="323" spans="1:7" s="19" customFormat="1">
       <c r="A323" s="60" t="s">
         <v>828</v>
       </c>
@@ -15886,7 +15981,7 @@
       </c>
       <c r="G323" s="59"/>
     </row>
-    <row r="324" spans="1:7" s="19" customFormat="1" ht="409.6">
+    <row r="324" spans="1:7" s="19" customFormat="1">
       <c r="A324" s="60" t="s">
         <v>829</v>
       </c>
@@ -15997,7 +16092,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="409.6">
+    <row r="329" spans="1:7">
       <c r="A329" s="22" t="s">
         <v>835</v>
       </c>
@@ -16020,7 +16115,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="409.6">
+    <row r="330" spans="1:7">
       <c r="A330" s="22" t="s">
         <v>835</v>
       </c>
@@ -16043,7 +16138,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="409.6">
+    <row r="331" spans="1:7">
       <c r="A331" s="22" t="s">
         <v>844</v>
       </c>
@@ -16112,7 +16207,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="409.6">
+    <row r="334" spans="1:7">
       <c r="A334" s="22" t="s">
         <v>847</v>
       </c>
@@ -16135,7 +16230,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="409.6">
+    <row r="335" spans="1:7">
       <c r="A335" s="22" t="s">
         <v>847</v>
       </c>
@@ -16158,7 +16253,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="409.6">
+    <row r="336" spans="1:7">
       <c r="A336" s="22" t="s">
         <v>847</v>
       </c>
@@ -16181,7 +16276,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="409.6">
+    <row r="337" spans="1:7">
       <c r="A337" s="22" t="s">
         <v>847</v>
       </c>
@@ -16204,7 +16299,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="409.6">
+    <row r="338" spans="1:7">
       <c r="A338" s="22" t="s">
         <v>864</v>
       </c>
@@ -16227,7 +16322,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="409.6">
+    <row r="339" spans="1:7">
       <c r="A339" s="22" t="s">
         <v>864</v>
       </c>
@@ -16273,7 +16368,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="409.6">
+    <row r="341" spans="1:7">
       <c r="A341" s="22" t="s">
         <v>869</v>
       </c>
@@ -16342,7 +16437,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="409.6">
+    <row r="344" spans="1:7">
       <c r="A344" s="22" t="s">
         <v>874</v>
       </c>
@@ -16365,7 +16460,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="409.6">
+    <row r="345" spans="1:7">
       <c r="A345" s="22" t="s">
         <v>874</v>
       </c>
@@ -16388,7 +16483,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="409.6">
+    <row r="346" spans="1:7">
       <c r="A346" s="22" t="s">
         <v>874</v>
       </c>
@@ -16411,7 +16506,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="409.6">
+    <row r="347" spans="1:7">
       <c r="A347" s="22" t="s">
         <v>874</v>
       </c>
@@ -16434,7 +16529,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="409.6">
+    <row r="348" spans="1:7">
       <c r="A348" s="22" t="s">
         <v>886</v>
       </c>
@@ -16457,7 +16552,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="409.6">
+    <row r="349" spans="1:7">
       <c r="A349" s="22" t="s">
         <v>886</v>
       </c>
@@ -16595,7 +16690,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="409.6">
+    <row r="355" spans="1:7">
       <c r="A355" s="36" t="s">
         <v>895</v>
       </c>
@@ -16618,7 +16713,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="409.6">
+    <row r="356" spans="1:7">
       <c r="A356" s="22" t="s">
         <v>909</v>
       </c>
@@ -16641,7 +16736,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="409.6">
+    <row r="357" spans="1:7">
       <c r="A357" s="22" t="s">
         <v>909</v>
       </c>
@@ -16664,7 +16759,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="409.6">
+    <row r="358" spans="1:7">
       <c r="A358" s="22" t="s">
         <v>909</v>
       </c>
@@ -16687,7 +16782,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="409.6">
+    <row r="359" spans="1:7">
       <c r="A359" s="22" t="s">
         <v>909</v>
       </c>
@@ -16756,7 +16851,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="409.6">
+    <row r="362" spans="1:7">
       <c r="A362" s="22" t="s">
         <v>922</v>
       </c>
@@ -16779,7 +16874,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="409.6">
+    <row r="363" spans="1:7">
       <c r="A363" s="22" t="s">
         <v>929</v>
       </c>
@@ -16802,7 +16897,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="409.6">
+    <row r="364" spans="1:7">
       <c r="A364" s="41" t="s">
         <v>929</v>
       </c>
@@ -16825,7 +16920,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="409.6">
+    <row r="365" spans="1:7">
       <c r="A365" s="22" t="s">
         <v>936</v>
       </c>
@@ -16848,7 +16943,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="409.6">
+    <row r="366" spans="1:7">
       <c r="A366" s="22" t="s">
         <v>939</v>
       </c>
@@ -16871,7 +16966,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="409.6">
+    <row r="367" spans="1:7">
       <c r="A367" s="22" t="s">
         <v>939</v>
       </c>
@@ -16894,7 +16989,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="409.6">
+    <row r="368" spans="1:7">
       <c r="A368" s="22" t="s">
         <v>939</v>
       </c>
@@ -16940,7 +17035,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="409.6">
+    <row r="370" spans="1:7">
       <c r="A370" s="22" t="s">
         <v>946</v>
       </c>
@@ -17009,7 +17104,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="409.6">
+    <row r="373" spans="1:7">
       <c r="A373" s="22" t="s">
         <v>949</v>
       </c>
@@ -17032,7 +17127,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="409.6">
+    <row r="374" spans="1:7">
       <c r="A374" s="41" t="s">
         <v>949</v>
       </c>
@@ -17055,7 +17150,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="409.6">
+    <row r="375" spans="1:7">
       <c r="A375" s="22" t="s">
         <v>949</v>
       </c>
@@ -17101,7 +17196,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="409.6">
+    <row r="377" spans="1:7">
       <c r="A377" s="22" t="s">
         <v>949</v>
       </c>
@@ -17124,7 +17219,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="409.6">
+    <row r="378" spans="1:7">
       <c r="A378" s="22" t="s">
         <v>961</v>
       </c>
@@ -17147,7 +17242,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="409.6">
+    <row r="379" spans="1:7">
       <c r="A379" s="22" t="s">
         <v>961</v>
       </c>
@@ -17193,7 +17288,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="409.6">
+    <row r="381" spans="1:7">
       <c r="A381" s="22" t="s">
         <v>973</v>
       </c>
@@ -17214,7 +17309,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="409.6">
+    <row r="382" spans="1:7">
       <c r="A382" s="22" t="s">
         <v>973</v>
       </c>
@@ -17235,7 +17330,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="409.6">
+    <row r="383" spans="1:7">
       <c r="A383" s="41" t="s">
         <v>978</v>
       </c>
@@ -17258,7 +17353,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="409.6">
+    <row r="384" spans="1:7">
       <c r="A384" s="41" t="s">
         <v>978</v>
       </c>
@@ -17281,7 +17376,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="409.6">
+    <row r="385" spans="1:7">
       <c r="A385" s="22" t="s">
         <v>982</v>
       </c>
@@ -17304,7 +17399,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="409.6">
+    <row r="386" spans="1:7">
       <c r="A386" s="22" t="s">
         <v>982</v>
       </c>
@@ -17350,7 +17445,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="409.6">
+    <row r="388" spans="1:7">
       <c r="A388" s="22" t="s">
         <v>982</v>
       </c>
@@ -17465,7 +17560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="409.6">
+    <row r="393" spans="1:7">
       <c r="A393" s="22" t="s">
         <v>991</v>
       </c>
@@ -17488,7 +17583,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="409.6">
+    <row r="394" spans="1:7">
       <c r="A394" s="22" t="s">
         <v>998</v>
       </c>
@@ -17534,7 +17629,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="409.6">
+    <row r="396" spans="1:7">
       <c r="A396" s="22" t="s">
         <v>1001</v>
       </c>
@@ -17603,7 +17698,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="409.6">
+    <row r="399" spans="1:7">
       <c r="A399" s="22" t="s">
         <v>1011</v>
       </c>
@@ -17741,7 +17836,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="409.6">
+    <row r="405" spans="1:7">
       <c r="A405" s="22" t="s">
         <v>1026</v>
       </c>
@@ -17940,7 +18035,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="409.6">
+    <row r="414" spans="1:7">
       <c r="F414" s="15"/>
     </row>
   </sheetData>
@@ -17957,14 +18052,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18006,7 +18101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1">
+    <row r="2" spans="1:8" ht="27">
       <c r="A2" s="8" t="s">
         <v>1047</v>
       </c>
@@ -18023,10 +18118,12 @@
       <c r="F2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="15" t="s">
+        <v>1182</v>
+      </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27" hidden="1">
+    <row r="3" spans="1:8" ht="27">
       <c r="A3" s="8" t="s">
         <v>1048</v>
       </c>
@@ -18045,10 +18142,12 @@
       <c r="F3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="35" t="s">
+        <v>1181</v>
+      </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="27" hidden="1">
+    <row r="4" spans="1:8" ht="27">
       <c r="A4" s="8"/>
       <c r="B4" s="12" t="s">
         <v>1049</v>
@@ -18061,14 +18160,16 @@
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="15" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G4" s="11"/>
+        <v>1183</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>1184</v>
+      </c>
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" hidden="1">
       <c r="A5" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>51</v>
@@ -18080,20 +18181,20 @@
         <v>483</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>254</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" hidden="1">
       <c r="A6" s="8"/>
       <c r="B6" s="12" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>16</v>
@@ -18102,19 +18203,19 @@
         <v>483</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>1055</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="11" t="s">
         <v>1056</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>1057</v>
       </c>
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="27" hidden="1">
       <c r="A7" s="8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>776</v>
@@ -18127,10 +18228,10 @@
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="H7" s="12"/>
     </row>
@@ -18147,10 +18248,10 @@
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>1060</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>1061</v>
       </c>
       <c r="H8" s="12"/>
     </row>
@@ -18167,16 +18268,16 @@
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="11" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" hidden="1">
       <c r="A10" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>57</v>
@@ -18189,16 +18290,16 @@
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" hidden="1">
       <c r="A11" s="8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>51</v>
@@ -18210,10 +18311,10 @@
         <v>483</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>1065</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>1066</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>55</v>
@@ -18223,7 +18324,7 @@
     <row r="12" spans="1:8" ht="40.5" hidden="1">
       <c r="A12" s="8"/>
       <c r="B12" s="12" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>16</v>
@@ -18232,19 +18333,19 @@
         <v>483</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>1069</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>1070</v>
       </c>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" hidden="1">
       <c r="A13" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>51</v>
@@ -18256,19 +18357,19 @@
         <v>483</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>1066</v>
-      </c>
       <c r="G13" s="67" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>15</v>
@@ -18284,13 +18385,13 @@
         <v>240</v>
       </c>
       <c r="G14" s="67" t="s">
-        <v>1178</v>
+        <v>1167</v>
       </c>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>776</v>
@@ -18306,11 +18407,11 @@
         <v>27</v>
       </c>
       <c r="G15" s="67" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" s="8"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
@@ -18323,14 +18424,14 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="67" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="G16" s="67" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" hidden="1">
       <c r="A17" s="8"/>
       <c r="B17" s="12" t="s">
         <v>57</v>
@@ -18343,19 +18444,19 @@
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="67" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="G17" s="67" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="54" t="s">
         <v>1177</v>
       </c>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" hidden="1">
-      <c r="A18" s="8" t="s">
-        <v>1074</v>
-      </c>
       <c r="B18" s="12" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>16</v>
@@ -18364,16 +18465,18 @@
         <v>503</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="67" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G18" s="67"/>
+      <c r="F18" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>1185</v>
+      </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" hidden="1">
+    <row r="19" spans="1:8">
       <c r="A19" s="12"/>
       <c r="B19" s="12" t="s">
-        <v>1077</v>
+        <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>16</v>
@@ -18383,15 +18486,17 @@
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="11" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G19" s="11"/>
+        <v>1075</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>1180</v>
+      </c>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" hidden="1">
+    <row r="20" spans="1:8" ht="27">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
-        <v>15</v>
+        <v>1076</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>16</v>
@@ -18401,15 +18506,19 @@
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="11" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G20" s="11"/>
+        <v>1077</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>1186</v>
+      </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" hidden="1">
-      <c r="A21" s="12"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="54" t="s">
+        <v>1178</v>
+      </c>
       <c r="B21" s="12" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>16</v>
@@ -18419,17 +18528,17 @@
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="11" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G21" s="11"/>
+        <v>1078</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>1185</v>
+      </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" hidden="1">
-      <c r="A22" s="8" t="s">
-        <v>1082</v>
-      </c>
+    <row r="22" spans="1:8">
+      <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>16</v>
@@ -18439,15 +18548,17 @@
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G22" s="11"/>
+        <v>1080</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>1187</v>
+      </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" hidden="1">
+    <row r="23" spans="1:8" ht="27">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>16</v>
@@ -18457,15 +18568,19 @@
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="11" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G23" s="11"/>
+        <v>1082</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>1186</v>
+      </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" hidden="1">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="54" t="s">
+        <v>1179</v>
+      </c>
       <c r="B24" s="12" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>16</v>
@@ -18475,15 +18590,17 @@
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="11" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G24" s="11"/>
+        <v>1078</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>1193</v>
+      </c>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" hidden="1">
+    <row r="25" spans="1:8">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>16</v>
@@ -18493,17 +18610,19 @@
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="11" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G25" s="11"/>
+        <v>1080</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>1187</v>
+      </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" hidden="1">
-      <c r="A26" s="8" t="s">
-        <v>1088</v>
+    <row r="26" spans="1:8">
+      <c r="A26" s="54" t="s">
+        <v>1188</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>16</v>
@@ -18513,15 +18632,17 @@
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G26" s="11"/>
+        <v>1078</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>1193</v>
+      </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" hidden="1">
+    <row r="27" spans="1:8">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>16</v>
@@ -18531,15 +18652,19 @@
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="11" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G27" s="11"/>
+        <v>1080</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>1187</v>
+      </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" hidden="1">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="54" t="s">
+        <v>1189</v>
+      </c>
       <c r="B28" s="12" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>16</v>
@@ -18549,17 +18674,17 @@
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="11" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G28" s="11"/>
+        <v>1078</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>1193</v>
+      </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" hidden="1">
-      <c r="A29" s="8" t="s">
-        <v>1089</v>
-      </c>
+    <row r="29" spans="1:8">
+      <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>16</v>
@@ -18569,15 +18694,19 @@
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G29" s="11"/>
+        <v>1080</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>1187</v>
+      </c>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" hidden="1">
-      <c r="A30" s="12"/>
+    <row r="30" spans="1:8">
+      <c r="A30" s="54" t="s">
+        <v>1190</v>
+      </c>
       <c r="B30" s="12" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>16</v>
@@ -18587,15 +18716,17 @@
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="11" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G30" s="11"/>
+        <v>1078</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>1193</v>
+      </c>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" hidden="1">
+    <row r="31" spans="1:8">
       <c r="A31" s="12"/>
       <c r="B31" s="12" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>16</v>
@@ -18605,17 +18736,17 @@
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G31" s="11"/>
+        <v>1080</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>1187</v>
+      </c>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" hidden="1">
-      <c r="A32" s="8" t="s">
-        <v>1090</v>
-      </c>
+    <row r="32" spans="1:8">
+      <c r="A32" s="12"/>
       <c r="B32" s="12" t="s">
-        <v>1075</v>
+        <v>15</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>16</v>
@@ -18625,15 +18756,19 @@
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G32" s="11"/>
+        <v>1075</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>1180</v>
+      </c>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" hidden="1">
-      <c r="A33" s="12"/>
+    <row r="33" spans="1:8">
+      <c r="A33" s="54" t="s">
+        <v>1191</v>
+      </c>
       <c r="B33" s="12" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>16</v>
@@ -18643,15 +18778,17 @@
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="11" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G33" s="11"/>
+        <v>1078</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>1193</v>
+      </c>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" hidden="1">
+    <row r="34" spans="1:8">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>16</v>
@@ -18661,17 +18798,17 @@
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="11" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G34" s="11"/>
+        <v>1080</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>1187</v>
+      </c>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" hidden="1">
-      <c r="A35" s="8" t="s">
-        <v>1091</v>
-      </c>
+    <row r="35" spans="1:8">
+      <c r="A35" s="12"/>
       <c r="B35" s="12" t="s">
-        <v>1075</v>
+        <v>15</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>16</v>
@@ -18681,33 +18818,41 @@
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G35" s="11"/>
+        <v>1075</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>1180</v>
+      </c>
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" hidden="1">
-      <c r="A36" s="12"/>
+      <c r="A36" s="8" t="s">
+        <v>1083</v>
+      </c>
       <c r="B36" s="12" t="s">
-        <v>1077</v>
+        <v>51</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>503</v>
+        <v>30</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="11" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G36" s="11"/>
+        <v>254</v>
+      </c>
+      <c r="G36" s="67" t="s">
+        <v>1132</v>
+      </c>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" hidden="1">
-      <c r="A37" s="12"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8" t="s">
+        <v>1084</v>
+      </c>
       <c r="B37" s="12" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>16</v>
@@ -18717,15 +18862,17 @@
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="11" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G37" s="11"/>
+        <v>1086</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>1197</v>
+      </c>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" hidden="1">
+    <row r="38" spans="1:8" ht="27">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>16</v>
@@ -18735,17 +18882,17 @@
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="11" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G38" s="11"/>
+        <v>1087</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>1182</v>
+      </c>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" hidden="1">
-      <c r="A39" s="8" t="s">
-        <v>1092</v>
-      </c>
+    <row r="39" spans="1:8" ht="27">
+      <c r="A39" s="12"/>
       <c r="B39" s="12" t="s">
-        <v>1075</v>
+        <v>193</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>16</v>
@@ -18755,15 +18902,17 @@
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G39" s="11"/>
+        <v>1088</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>1182</v>
+      </c>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" hidden="1">
+    <row r="40" spans="1:8">
       <c r="A40" s="12"/>
       <c r="B40" s="12" t="s">
-        <v>1077</v>
+        <v>51</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>16</v>
@@ -18773,15 +18922,19 @@
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="11" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G40" s="11"/>
+        <v>1089</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>1195</v>
+      </c>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" hidden="1">
-      <c r="A41" s="12"/>
+    <row r="41" spans="1:8">
+      <c r="A41" s="8" t="s">
+        <v>1090</v>
+      </c>
       <c r="B41" s="12" t="s">
-        <v>1084</v>
+        <v>776</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>16</v>
@@ -18791,35 +18944,39 @@
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="11" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G41" s="11"/>
+        <v>967</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>1196</v>
+      </c>
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" hidden="1">
-      <c r="A42" s="12"/>
+      <c r="A42" s="8" t="s">
+        <v>1091</v>
+      </c>
       <c r="B42" s="12" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>503</v>
+        <v>30</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="11" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G42" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="G42" s="67" t="s">
+        <v>1133</v>
+      </c>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="8" t="s">
-        <v>1093</v>
-      </c>
+    <row r="43" spans="1:8" hidden="1">
+      <c r="A43" s="12"/>
       <c r="B43" s="12" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>16</v>
@@ -18828,194 +18985,204 @@
         <v>30</v>
       </c>
       <c r="E43" s="12"/>
-      <c r="F43" s="11" t="s">
-        <v>254</v>
+      <c r="F43" s="67" t="s">
+        <v>1173</v>
       </c>
       <c r="G43" s="67" t="s">
-        <v>1143</v>
+        <v>1174</v>
       </c>
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" hidden="1">
-      <c r="A44" s="8" t="s">
-        <v>1094</v>
-      </c>
+      <c r="A44" s="12"/>
       <c r="B44" s="12" t="s">
-        <v>1095</v>
+        <v>1049</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>503</v>
+        <v>30</v>
       </c>
       <c r="E44" s="12"/>
-      <c r="F44" s="11" t="s">
-        <v>1096</v>
-      </c>
-      <c r="G44" s="11"/>
+      <c r="F44" s="67" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G44" s="67" t="s">
+        <v>1176</v>
+      </c>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" hidden="1">
+    <row r="45" spans="1:8" ht="27" hidden="1">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>503</v>
+        <v>30</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="11" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G45" s="11"/>
+        <v>1092</v>
+      </c>
+      <c r="G45" s="67" t="s">
+        <v>1172</v>
+      </c>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" hidden="1">
+    <row r="46" spans="1:8" ht="27" hidden="1">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>503</v>
+        <v>30</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="11" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G46" s="11"/>
+        <v>108</v>
+      </c>
+      <c r="G46" s="67" t="s">
+        <v>1171</v>
+      </c>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" hidden="1">
-      <c r="A47" s="12"/>
+      <c r="A47" s="8" t="s">
+        <v>1093</v>
+      </c>
       <c r="B47" s="12" t="s">
-        <v>51</v>
+        <v>1094</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>503</v>
+        <v>30</v>
       </c>
       <c r="E47" s="12"/>
-      <c r="F47" s="11" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G47" s="11"/>
+      <c r="F47" s="67" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G47" s="67" t="s">
+        <v>1168</v>
+      </c>
       <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" hidden="1">
-      <c r="A48" s="8" t="s">
-        <v>1100</v>
-      </c>
+      <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
-        <v>776</v>
+        <v>93</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>503</v>
+        <v>30</v>
       </c>
       <c r="E48" s="12"/>
-      <c r="F48" s="11" t="s">
-        <v>967</v>
-      </c>
-      <c r="G48" s="11"/>
+      <c r="F48" s="67" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G48" s="67" t="s">
+        <v>1170</v>
+      </c>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" ht="27">
       <c r="A49" s="8" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>30</v>
+        <v>503</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="67" t="s">
-        <v>1144</v>
+        <v>1087</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>1182</v>
       </c>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" ht="27">
       <c r="A50" s="12"/>
       <c r="B50" s="12" t="s">
-        <v>101</v>
+        <v>1097</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>30</v>
+        <v>503</v>
       </c>
       <c r="E50" s="12"/>
-      <c r="F50" s="67" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G50" s="67" t="s">
-        <v>1185</v>
+      <c r="F50" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>1182</v>
       </c>
       <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="12"/>
       <c r="B51" s="12" t="s">
-        <v>1049</v>
+        <v>1098</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>30</v>
+        <v>503</v>
       </c>
       <c r="E51" s="12"/>
-      <c r="F51" s="67" t="s">
-        <v>1186</v>
-      </c>
-      <c r="G51" s="67" t="s">
-        <v>1187</v>
+      <c r="F51" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>1194</v>
       </c>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="27">
+    <row r="52" spans="1:8">
       <c r="A52" s="12"/>
       <c r="B52" s="12" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>30</v>
+        <v>503</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="11" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G52" s="67" t="s">
-        <v>1183</v>
+        <v>254</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>1192</v>
       </c>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="27">
-      <c r="A53" s="12"/>
+    <row r="53" spans="1:8" hidden="1">
+      <c r="A53" s="8" t="s">
+        <v>1100</v>
+      </c>
       <c r="B53" s="12" t="s">
-        <v>107</v>
+        <v>1101</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>16</v>
@@ -19025,19 +19192,17 @@
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="11" t="s">
-        <v>108</v>
+        <v>1095</v>
       </c>
       <c r="G53" s="67" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="8" t="s">
-        <v>1103</v>
-      </c>
+    <row r="54" spans="1:8" hidden="1">
+      <c r="A54" s="12"/>
       <c r="B54" s="12" t="s">
-        <v>1104</v>
+        <v>51</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>16</v>
@@ -19046,18 +19211,18 @@
         <v>30</v>
       </c>
       <c r="E54" s="12"/>
-      <c r="F54" s="67" t="s">
-        <v>1176</v>
+      <c r="F54" s="11" t="s">
+        <v>1102</v>
       </c>
       <c r="G54" s="67" t="s">
-        <v>1179</v>
+        <v>1131</v>
       </c>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" hidden="1">
       <c r="A55" s="12"/>
       <c r="B55" s="12" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>16</v>
@@ -19067,93 +19232,99 @@
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="67" t="s">
-        <v>1180</v>
+        <v>1137</v>
       </c>
       <c r="G55" s="67" t="s">
-        <v>1181</v>
+        <v>1138</v>
       </c>
       <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" hidden="1">
       <c r="A56" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>57</v>
+        <v>776</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>503</v>
+        <v>30</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="11" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G56" s="11"/>
+        <v>1104</v>
+      </c>
+      <c r="G56" s="67" t="s">
+        <v>1125</v>
+      </c>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" hidden="1">
+    <row r="57" spans="1:8" ht="27" hidden="1">
       <c r="A57" s="12"/>
       <c r="B57" s="12" t="s">
-        <v>1107</v>
+        <v>229</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>503</v>
+        <v>30</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="11" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G57" s="11"/>
+        <v>1105</v>
+      </c>
+      <c r="G57" s="67" t="s">
+        <v>1139</v>
+      </c>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" hidden="1">
+    <row r="58" spans="1:8" ht="27" hidden="1">
       <c r="A58" s="12"/>
       <c r="B58" s="12" t="s">
-        <v>1108</v>
+        <v>15</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>503</v>
+        <v>30</v>
       </c>
       <c r="E58" s="12"/>
-      <c r="F58" s="11" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G58" s="11"/>
+      <c r="F58" s="67" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G58" s="67" t="s">
+        <v>1141</v>
+      </c>
       <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" hidden="1">
       <c r="A59" s="12"/>
       <c r="B59" s="12" t="s">
-        <v>51</v>
+        <v>1106</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>503</v>
+        <v>30</v>
       </c>
       <c r="E59" s="12"/>
-      <c r="F59" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G59" s="11"/>
+      <c r="F59" s="67" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G59" s="67" t="s">
+        <v>1143</v>
+      </c>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="8" t="s">
-        <v>1110</v>
-      </c>
+    <row r="60" spans="1:8" ht="27" hidden="1">
+      <c r="A60" s="12"/>
       <c r="B60" s="12" t="s">
-        <v>1111</v>
+        <v>57</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>16</v>
@@ -19162,15 +19333,15 @@
         <v>30</v>
       </c>
       <c r="E60" s="12"/>
-      <c r="F60" s="11" t="s">
-        <v>1105</v>
+      <c r="F60" s="67" t="s">
+        <v>1144</v>
       </c>
       <c r="G60" s="67" t="s">
-        <v>1179</v>
+        <v>1145</v>
       </c>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" hidden="1">
       <c r="A61" s="12"/>
       <c r="B61" s="12" t="s">
         <v>51</v>
@@ -19182,18 +19353,20 @@
         <v>30</v>
       </c>
       <c r="E61" s="12"/>
-      <c r="F61" s="11" t="s">
-        <v>1112</v>
+      <c r="F61" s="67" t="s">
+        <v>1146</v>
       </c>
       <c r="G61" s="67" t="s">
-        <v>1142</v>
+        <v>1147</v>
       </c>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="12"/>
+    <row r="62" spans="1:8" hidden="1">
+      <c r="A62" s="8" t="s">
+        <v>1107</v>
+      </c>
       <c r="B62" s="12" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>16</v>
@@ -19202,20 +19375,18 @@
         <v>30</v>
       </c>
       <c r="E62" s="12"/>
-      <c r="F62" s="67" t="s">
-        <v>1148</v>
+      <c r="F62" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="G62" s="67" t="s">
-        <v>1149</v>
+        <v>1133</v>
       </c>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="8" t="s">
-        <v>1113</v>
-      </c>
+    <row r="63" spans="1:8" hidden="1">
+      <c r="A63" s="12"/>
       <c r="B63" s="12" t="s">
-        <v>776</v>
+        <v>101</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>16</v>
@@ -19225,17 +19396,17 @@
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="11" t="s">
-        <v>1114</v>
+        <v>103</v>
       </c>
       <c r="G63" s="67" t="s">
-        <v>1144</v>
+        <v>1164</v>
       </c>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="27">
+    <row r="64" spans="1:8" hidden="1">
       <c r="A64" s="12"/>
       <c r="B64" s="12" t="s">
-        <v>229</v>
+        <v>1049</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>16</v>
@@ -19245,17 +19416,17 @@
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="11" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="G64" s="67" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="27">
+    <row r="65" spans="1:8" ht="27" hidden="1">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>16</v>
@@ -19265,17 +19436,17 @@
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="67" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
       <c r="G65" s="67" t="s">
-        <v>1152</v>
+        <v>1162</v>
       </c>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="27" hidden="1">
       <c r="A66" s="12"/>
       <c r="B66" s="12" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>16</v>
@@ -19285,17 +19456,17 @@
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="67" t="s">
-        <v>1153</v>
+        <v>1161</v>
       </c>
       <c r="G66" s="67" t="s">
-        <v>1154</v>
+        <v>1163</v>
       </c>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="27">
+    <row r="67" spans="1:8" ht="27" hidden="1">
       <c r="A67" s="12"/>
       <c r="B67" s="12" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>16</v>
@@ -19304,60 +19475,68 @@
         <v>30</v>
       </c>
       <c r="E67" s="12"/>
-      <c r="F67" s="67" t="s">
-        <v>1155</v>
+      <c r="F67" s="11" t="s">
+        <v>1110</v>
       </c>
       <c r="G67" s="67" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="12"/>
+    <row r="68" spans="1:8" ht="27" hidden="1">
+      <c r="A68" s="8" t="s">
+        <v>1111</v>
+      </c>
       <c r="B68" s="12" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="67" t="s">
-        <v>1157</v>
-      </c>
-      <c r="G68" s="67" t="s">
-        <v>1158</v>
+        <v>483</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>1114</v>
       </c>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" hidden="1">
       <c r="A69" s="8" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E69" s="12"/>
+        <v>483</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>1064</v>
+      </c>
       <c r="F69" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G69" s="67" t="s">
-        <v>1144</v>
+        <v>1116</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>1117</v>
       </c>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="12"/>
+    <row r="70" spans="1:8" hidden="1">
+      <c r="A70" s="8" t="s">
+        <v>1118</v>
+      </c>
       <c r="B70" s="12" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>16</v>
@@ -19367,17 +19546,17 @@
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="11" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="G70" s="67" t="s">
-        <v>1175</v>
+        <v>1133</v>
       </c>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" ht="40.5" hidden="1">
       <c r="A71" s="12"/>
       <c r="B71" s="12" t="s">
-        <v>1049</v>
+        <v>75</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>16</v>
@@ -19387,17 +19566,17 @@
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="11" t="s">
-        <v>1118</v>
+        <v>77</v>
       </c>
       <c r="G71" s="67" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="27">
+    <row r="72" spans="1:8" hidden="1">
       <c r="A72" s="12"/>
       <c r="B72" s="12" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>16</v>
@@ -19407,17 +19586,17 @@
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="67" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="G72" s="67" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="27">
+    <row r="73" spans="1:8" hidden="1">
       <c r="A73" s="12"/>
       <c r="B73" s="12" t="s">
-        <v>1119</v>
+        <v>85</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>16</v>
@@ -19427,17 +19606,17 @@
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="67" t="s">
-        <v>1172</v>
+        <v>1154</v>
       </c>
       <c r="G73" s="67" t="s">
-        <v>1174</v>
+        <v>1155</v>
       </c>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="27">
+    <row r="74" spans="1:8" hidden="1">
       <c r="A74" s="12"/>
       <c r="B74" s="12" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>16</v>
@@ -19446,68 +19625,60 @@
         <v>30</v>
       </c>
       <c r="E74" s="12"/>
-      <c r="F74" s="11" t="s">
-        <v>1120</v>
+      <c r="F74" s="67" t="s">
+        <v>1152</v>
       </c>
       <c r="G74" s="67" t="s">
-        <v>1170</v>
+        <v>1153</v>
       </c>
       <c r="H74" s="12"/>
     </row>
     <row r="75" spans="1:8" ht="27" hidden="1">
-      <c r="A75" s="8" t="s">
-        <v>1121</v>
-      </c>
+      <c r="A75" s="12"/>
       <c r="B75" s="12" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>1122</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E75" s="12"/>
       <c r="F75" s="11" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>1124</v>
+        <v>95</v>
+      </c>
+      <c r="G75" s="67" t="s">
+        <v>1151</v>
       </c>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" hidden="1">
-      <c r="A76" s="8" t="s">
-        <v>1125</v>
-      </c>
+    <row r="76" spans="1:8" ht="27" hidden="1">
+      <c r="A76" s="12"/>
       <c r="B76" s="12" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>1127</v>
+        <v>30</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="67" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G76" s="67" t="s">
+        <v>1150</v>
       </c>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" ht="27" hidden="1">
       <c r="A77" s="8" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>16</v>
@@ -19517,17 +19688,17 @@
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="11" t="s">
-        <v>27</v>
+        <v>1120</v>
       </c>
       <c r="G77" s="67" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="40.5">
+    <row r="78" spans="1:8" hidden="1">
       <c r="A78" s="12"/>
       <c r="B78" s="12" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>16</v>
@@ -19536,18 +19707,18 @@
         <v>30</v>
       </c>
       <c r="E78" s="12"/>
-      <c r="F78" s="11" t="s">
-        <v>77</v>
+      <c r="F78" s="67" t="s">
+        <v>1134</v>
       </c>
       <c r="G78" s="67" t="s">
-        <v>1169</v>
+        <v>1135</v>
       </c>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" ht="54" hidden="1">
       <c r="A79" s="12"/>
       <c r="B79" s="12" t="s">
-        <v>79</v>
+        <v>1121</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>16</v>
@@ -19556,18 +19727,18 @@
         <v>30</v>
       </c>
       <c r="E79" s="12"/>
-      <c r="F79" s="67" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G79" s="67" t="s">
-        <v>1168</v>
+      <c r="F79" s="11" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>1122</v>
       </c>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" ht="67.5" hidden="1">
       <c r="A80" s="12"/>
       <c r="B80" s="12" t="s">
-        <v>85</v>
+        <v>1123</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>16</v>
@@ -19576,167 +19747,25 @@
         <v>30</v>
       </c>
       <c r="E80" s="12"/>
-      <c r="F80" s="67" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G80" s="67" t="s">
-        <v>1166</v>
+      <c r="F80" s="11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>1124</v>
       </c>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="67" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G81" s="67" t="s">
-        <v>1164</v>
-      </c>
-      <c r="H81" s="12"/>
-    </row>
-    <row r="82" spans="1:8" ht="27">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G82" s="67" t="s">
-        <v>1162</v>
-      </c>
-      <c r="H82" s="12"/>
-    </row>
-    <row r="83" spans="1:8" ht="27">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="67" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G83" s="67" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H83" s="12"/>
-    </row>
-    <row r="84" spans="1:8" ht="27">
-      <c r="A84" s="8" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="11" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G84" s="67" t="s">
-        <v>1147</v>
-      </c>
-      <c r="H84" s="12"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E85" s="12"/>
-      <c r="F85" s="67" t="s">
-        <v>1145</v>
-      </c>
-      <c r="G85" s="67" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H85" s="12"/>
-    </row>
-    <row r="86" spans="1:8" ht="54">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="11" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>1132</v>
-      </c>
-      <c r="H86" s="12"/>
-    </row>
-    <row r="87" spans="1:8" ht="67.5">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="11" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H87" s="12"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F87">
+  <autoFilter ref="A1:F80">
     <filterColumn colId="3">
       <filters>
-        <filter val="冯银鹏"/>
+        <filter val="田志敏"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D80">
       <formula1>"蒙先铭,姚海强,冯银鹏,田志敏"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19746,7 +19775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">

--- a/docs/enum/枚举的注释说明.xlsx
+++ b/docs/enum/枚举的注释说明.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="5445" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="5445"/>
   </bookViews>
   <sheets>
     <sheet name="mogoroomdb" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="1203">
   <si>
     <t>表名</t>
   </si>
@@ -8035,6 +8035,37 @@
       </rPr>
       <t>1:登录密码)</t>
     </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>oder_subscription</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tatus</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>王涛</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>订购状态：100-申请中；110-签约中；200-订购生效；210-扭转中； 300-取消中；310-订购取消；400-订购失效；</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>订购状态：APPLYING("申请中", 100), SIGNING("签约中", 110), EFFECTIVE("订购生效", 200), TRANSFERING("扭转中", 210), CANCELLING("取消中", 300),CANCELLED("订购取消", 310), EXPIRED("订购失效", 400);</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -8692,8 +8723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H414"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="G414" sqref="G414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8703,7 +8734,7 @@
     <col min="3" max="3" width="13.125" style="20" customWidth="1"/>
     <col min="4" max="4" width="10" style="20" customWidth="1"/>
     <col min="5" max="5" width="36.125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="69" style="21" customWidth="1"/>
     <col min="7" max="7" width="51.125" style="21" customWidth="1"/>
     <col min="8" max="8" width="25.5" style="20" customWidth="1"/>
     <col min="9" max="16384" width="9" style="20"/>
@@ -18035,8 +18066,25 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
-      <c r="F414" s="15"/>
+    <row r="414" spans="1:7" ht="63.75" customHeight="1">
+      <c r="A414" s="20" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B414" s="54" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C414" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D414" s="54" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F414" s="67" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G414" s="67" t="s">
+        <v>1202</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F413"/>
@@ -18047,7 +18095,10 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="LastActive" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -18056,10 +18107,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19755,6 +19806,26 @@
       </c>
       <c r="H80" s="12"/>
     </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H81" s="12"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F80">
     <filterColumn colId="3">
@@ -19765,12 +19836,15 @@
   </autoFilter>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D80">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D81">
       <formula1>"蒙先铭,姚海强,冯银鹏,田志敏"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="LastActive" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 

--- a/docs/enum/枚举的注释说明.xlsx
+++ b/docs/enum/枚举的注释说明.xlsx
@@ -8061,11 +8061,11 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>订购状态：APPLYING("申请中", 100), SIGNING("签约中", 110), EFFECTIVE("订购生效", 200), TRANSFERING("扭转中", 210), CANCELLING("取消中", 300),CANCELLED("订购取消", 310), EXPIRED("订购失效", 400);</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>订购状态：100-申请中；110-签约中；200-订购生效；210-扭转中； 300-取消中；310-订购取消；400-订购失效；</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>订购状态：APPLYING("申请中", 100), SIGNING("签约中", 110), EFFECTIVE("订购生效", 200), TRANSFERING("扭转中", 210), CANCELLING("取消中", 300),CANCELLED("订购取消", 310), EXPIRED("订购失效", 400);</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -8230,7 +8230,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
@@ -8406,6 +8406,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8723,7 +8726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
       <selection activeCell="G414" sqref="G414"/>
     </sheetView>
   </sheetViews>
@@ -8787,7 +8790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27">
+    <row r="3" spans="1:8">
       <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
@@ -8833,7 +8836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27">
+    <row r="5" spans="1:8">
       <c r="A5" s="22" t="s">
         <v>25</v>
       </c>
@@ -9057,7 +9060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="40.5">
+    <row r="15" spans="1:8">
       <c r="A15" s="22" t="s">
         <v>56</v>
       </c>
@@ -9187,7 +9190,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="16" customFormat="1" ht="40.5">
+    <row r="21" spans="1:7" s="16" customFormat="1" ht="27">
       <c r="A21" s="29" t="s">
         <v>71</v>
       </c>
@@ -9233,7 +9236,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="16" customFormat="1" ht="40.5">
+    <row r="23" spans="1:7" s="16" customFormat="1">
       <c r="A23" s="29" t="s">
         <v>71</v>
       </c>
@@ -9302,7 +9305,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="16" customFormat="1" ht="27">
+    <row r="26" spans="1:7" s="16" customFormat="1">
       <c r="A26" s="29" t="s">
         <v>71</v>
       </c>
@@ -9325,7 +9328,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="16" customFormat="1" ht="27">
+    <row r="27" spans="1:7" s="16" customFormat="1">
       <c r="A27" s="29" t="s">
         <v>71</v>
       </c>
@@ -9394,7 +9397,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="16" customFormat="1" ht="27">
+    <row r="30" spans="1:7" s="16" customFormat="1">
       <c r="A30" s="29" t="s">
         <v>99</v>
       </c>
@@ -9417,7 +9420,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="16" customFormat="1" ht="27">
+    <row r="31" spans="1:7" s="16" customFormat="1">
       <c r="A31" s="29" t="s">
         <v>99</v>
       </c>
@@ -9532,7 +9535,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="27">
+    <row r="36" spans="1:7">
       <c r="A36" s="22" t="s">
         <v>125</v>
       </c>
@@ -10008,7 +10011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="27">
+    <row r="57" spans="1:8">
       <c r="A57" s="22" t="s">
         <v>186</v>
       </c>
@@ -10029,7 +10032,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="27">
+    <row r="58" spans="1:8">
       <c r="A58" s="22" t="s">
         <v>186</v>
       </c>
@@ -10092,7 +10095,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="27">
+    <row r="61" spans="1:8">
       <c r="A61" s="22" t="s">
         <v>195</v>
       </c>
@@ -10113,7 +10116,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="27">
+    <row r="62" spans="1:8">
       <c r="A62" s="22" t="s">
         <v>195</v>
       </c>
@@ -10155,7 +10158,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="27">
+    <row r="64" spans="1:8">
       <c r="A64" s="22" t="s">
         <v>198</v>
       </c>
@@ -10176,7 +10179,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="27">
+    <row r="65" spans="1:7">
       <c r="A65" s="22" t="s">
         <v>198</v>
       </c>
@@ -10266,7 +10269,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="27">
+    <row r="69" spans="1:7">
       <c r="A69" s="22" t="s">
         <v>199</v>
       </c>
@@ -10312,7 +10315,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="27">
+    <row r="71" spans="1:7">
       <c r="A71" s="22" t="s">
         <v>217</v>
       </c>
@@ -10354,7 +10357,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="27">
+    <row r="73" spans="1:7">
       <c r="A73" s="22" t="s">
         <v>217</v>
       </c>
@@ -10375,7 +10378,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="27">
+    <row r="74" spans="1:7">
       <c r="A74" s="22" t="s">
         <v>217</v>
       </c>
@@ -10396,7 +10399,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="27">
+    <row r="75" spans="1:7">
       <c r="A75" s="22" t="s">
         <v>223</v>
       </c>
@@ -10419,7 +10422,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="27">
+    <row r="76" spans="1:7">
       <c r="A76" s="22" t="s">
         <v>223</v>
       </c>
@@ -10505,7 +10508,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="27">
+    <row r="80" spans="1:7">
       <c r="A80" s="22" t="s">
         <v>233</v>
       </c>
@@ -10589,7 +10592,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="16" customFormat="1" ht="27">
+    <row r="84" spans="1:7" s="16" customFormat="1">
       <c r="A84" s="29" t="s">
         <v>245</v>
       </c>
@@ -10612,7 +10615,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="16" customFormat="1" ht="40.5">
+    <row r="85" spans="1:7" s="16" customFormat="1" ht="27">
       <c r="A85" s="29" t="s">
         <v>245</v>
       </c>
@@ -10746,7 +10749,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="40.5">
+    <row r="91" spans="1:7">
       <c r="A91" s="22" t="s">
         <v>261</v>
       </c>
@@ -10792,7 +10795,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="27">
+    <row r="93" spans="1:7">
       <c r="A93" s="22" t="s">
         <v>271</v>
       </c>
@@ -10813,7 +10816,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="27">
+    <row r="94" spans="1:7">
       <c r="A94" s="22" t="s">
         <v>275</v>
       </c>
@@ -11340,7 +11343,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="27">
+    <row r="117" spans="1:7">
       <c r="A117" s="22" t="s">
         <v>335</v>
       </c>
@@ -11547,7 +11550,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="40.5">
+    <row r="126" spans="1:7" ht="27">
       <c r="A126" s="22" t="s">
         <v>345</v>
       </c>
@@ -11570,7 +11573,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="27">
+    <row r="127" spans="1:7">
       <c r="A127" s="22" t="s">
         <v>345</v>
       </c>
@@ -11593,7 +11596,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="27">
+    <row r="128" spans="1:7">
       <c r="A128" s="22" t="s">
         <v>345</v>
       </c>
@@ -11824,7 +11827,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="27">
+    <row r="138" spans="1:8">
       <c r="A138" s="22" t="s">
         <v>379</v>
       </c>
@@ -11847,7 +11850,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="27">
+    <row r="139" spans="1:8">
       <c r="A139" s="22" t="s">
         <v>379</v>
       </c>
@@ -11962,7 +11965,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="27">
+    <row r="144" spans="1:8">
       <c r="A144" s="22" t="s">
         <v>397</v>
       </c>
@@ -12031,7 +12034,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="27">
+    <row r="147" spans="1:7">
       <c r="A147" s="22" t="s">
         <v>411</v>
       </c>
@@ -12077,7 +12080,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="27">
+    <row r="149" spans="1:7">
       <c r="A149" s="22" t="s">
         <v>418</v>
       </c>
@@ -12123,7 +12126,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="27">
+    <row r="151" spans="1:7">
       <c r="A151" s="22" t="s">
         <v>418</v>
       </c>
@@ -12169,7 +12172,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="40.5">
+    <row r="153" spans="1:7" ht="27">
       <c r="A153" s="22" t="s">
         <v>418</v>
       </c>
@@ -12192,7 +12195,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="27">
+    <row r="154" spans="1:7">
       <c r="A154" s="22" t="s">
         <v>418</v>
       </c>
@@ -12215,7 +12218,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="27">
+    <row r="155" spans="1:7">
       <c r="A155" s="22" t="s">
         <v>418</v>
       </c>
@@ -12284,7 +12287,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="27">
+    <row r="158" spans="1:7">
       <c r="A158" s="22" t="s">
         <v>438</v>
       </c>
@@ -12376,7 +12379,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="27">
+    <row r="162" spans="1:7">
       <c r="A162" s="22" t="s">
         <v>454</v>
       </c>
@@ -12422,7 +12425,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="40.5">
+    <row r="164" spans="1:7" ht="27">
       <c r="A164" s="22" t="s">
         <v>454</v>
       </c>
@@ -12445,7 +12448,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="27">
+    <row r="165" spans="1:7">
       <c r="A165" s="22" t="s">
         <v>466</v>
       </c>
@@ -12491,7 +12494,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="27">
+    <row r="167" spans="1:7">
       <c r="A167" s="22" t="s">
         <v>466</v>
       </c>
@@ -12537,7 +12540,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="27">
+    <row r="169" spans="1:7">
       <c r="A169" s="22" t="s">
         <v>466</v>
       </c>
@@ -12560,7 +12563,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="27">
+    <row r="170" spans="1:7">
       <c r="A170" s="22" t="s">
         <v>466</v>
       </c>
@@ -12606,7 +12609,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="27">
+    <row r="172" spans="1:7">
       <c r="A172" s="22" t="s">
         <v>471</v>
       </c>
@@ -12629,7 +12632,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="27">
+    <row r="173" spans="1:7">
       <c r="A173" s="22" t="s">
         <v>471</v>
       </c>
@@ -12816,7 +12819,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="27">
+    <row r="182" spans="1:8">
       <c r="A182" s="22" t="s">
         <v>489</v>
       </c>
@@ -12932,7 +12935,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="27">
+    <row r="188" spans="1:8">
       <c r="A188" s="22" t="s">
         <v>492</v>
       </c>
@@ -12972,7 +12975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="27">
+    <row r="190" spans="1:8">
       <c r="A190" s="22" t="s">
         <v>496</v>
       </c>
@@ -12993,7 +12996,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="27">
+    <row r="191" spans="1:8">
       <c r="A191" s="22" t="s">
         <v>496</v>
       </c>
@@ -13036,7 +13039,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="27">
+    <row r="193" spans="1:8">
       <c r="A193" s="52" t="s">
         <v>505</v>
       </c>
@@ -13108,7 +13111,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="27">
+    <row r="196" spans="1:8">
       <c r="A196" s="52" t="s">
         <v>505</v>
       </c>
@@ -13132,7 +13135,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="27">
+    <row r="197" spans="1:8">
       <c r="A197" s="52" t="s">
         <v>505</v>
       </c>
@@ -13506,7 +13509,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="27">
+    <row r="213" spans="1:7">
       <c r="A213" s="22" t="s">
         <v>546</v>
       </c>
@@ -13598,7 +13601,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="27">
+    <row r="217" spans="1:7">
       <c r="A217" s="22" t="s">
         <v>558</v>
       </c>
@@ -13713,7 +13716,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="27">
+    <row r="222" spans="1:7">
       <c r="A222" s="22" t="s">
         <v>570</v>
       </c>
@@ -13782,7 +13785,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="27">
+    <row r="225" spans="1:7">
       <c r="A225" s="22" t="s">
         <v>570</v>
       </c>
@@ -14146,7 +14149,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="27">
+    <row r="241" spans="1:7">
       <c r="A241" s="22" t="s">
         <v>619</v>
       </c>
@@ -14305,7 +14308,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="27">
+    <row r="248" spans="1:7">
       <c r="A248" s="22" t="s">
         <v>635</v>
       </c>
@@ -14374,7 +14377,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="40.5">
+    <row r="251" spans="1:7" ht="27">
       <c r="A251" s="22" t="s">
         <v>646</v>
       </c>
@@ -14418,7 +14421,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="27">
+    <row r="253" spans="1:7">
       <c r="A253" s="22" t="s">
         <v>652</v>
       </c>
@@ -14439,7 +14442,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="40.5">
+    <row r="254" spans="1:7" ht="27">
       <c r="A254" s="22" t="s">
         <v>652</v>
       </c>
@@ -14580,7 +14583,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="27">
+    <row r="261" spans="1:7">
       <c r="A261" s="22" t="s">
         <v>670</v>
       </c>
@@ -14601,7 +14604,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="27">
+    <row r="262" spans="1:7">
       <c r="A262" s="22" t="s">
         <v>676</v>
       </c>
@@ -14643,7 +14646,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="27">
+    <row r="264" spans="1:7">
       <c r="A264" s="22" t="s">
         <v>683</v>
       </c>
@@ -14689,7 +14692,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="27">
+    <row r="266" spans="1:7">
       <c r="A266" s="22" t="s">
         <v>689</v>
       </c>
@@ -14733,7 +14736,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="27">
+    <row r="268" spans="1:7">
       <c r="A268" s="22" t="s">
         <v>690</v>
       </c>
@@ -14756,7 +14759,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="27">
+    <row r="269" spans="1:7">
       <c r="A269" s="22" t="s">
         <v>690</v>
       </c>
@@ -14888,7 +14891,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="27">
+    <row r="275" spans="1:7">
       <c r="A275" s="22" t="s">
         <v>704</v>
       </c>
@@ -14932,7 +14935,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="40.5">
+    <row r="277" spans="1:7" ht="27">
       <c r="A277" s="22" t="s">
         <v>709</v>
       </c>
@@ -15047,7 +15050,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="27">
+    <row r="282" spans="1:7">
       <c r="A282" s="22" t="s">
         <v>718</v>
       </c>
@@ -15070,7 +15073,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="27">
+    <row r="283" spans="1:7">
       <c r="A283" s="22" t="s">
         <v>718</v>
       </c>
@@ -15185,7 +15188,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="27">
+    <row r="288" spans="1:7">
       <c r="A288" s="22" t="s">
         <v>734</v>
       </c>
@@ -15277,7 +15280,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="27">
+    <row r="292" spans="1:8">
       <c r="A292" s="22" t="s">
         <v>741</v>
       </c>
@@ -15418,7 +15421,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="27">
+    <row r="298" spans="1:8">
       <c r="A298" s="22" t="s">
         <v>760</v>
       </c>
@@ -15464,7 +15467,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="27">
+    <row r="300" spans="1:8">
       <c r="A300" s="22" t="s">
         <v>768</v>
       </c>
@@ -15487,7 +15490,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="27">
+    <row r="301" spans="1:8">
       <c r="A301" s="22" t="s">
         <v>768</v>
       </c>
@@ -15510,7 +15513,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="302" spans="1:8" s="19" customFormat="1" ht="27">
+    <row r="302" spans="1:8" s="19" customFormat="1">
       <c r="A302" s="60" t="s">
         <v>768</v>
       </c>
@@ -15671,7 +15674,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="27">
+    <row r="309" spans="1:7">
       <c r="A309" s="22" t="s">
         <v>797</v>
       </c>
@@ -16100,7 +16103,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="54">
+    <row r="328" spans="1:7" ht="27">
       <c r="A328" s="22" t="s">
         <v>835</v>
       </c>
@@ -16192,7 +16195,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="27">
+    <row r="332" spans="1:7">
       <c r="A332" s="22" t="s">
         <v>847</v>
       </c>
@@ -16215,7 +16218,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="27">
+    <row r="333" spans="1:7">
       <c r="A333" s="22" t="s">
         <v>847</v>
       </c>
@@ -16376,7 +16379,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="27">
+    <row r="340" spans="1:7">
       <c r="A340" s="22" t="s">
         <v>869</v>
       </c>
@@ -16422,7 +16425,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="27">
+    <row r="342" spans="1:7">
       <c r="A342" s="22" t="s">
         <v>874</v>
       </c>
@@ -16445,7 +16448,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="27">
+    <row r="343" spans="1:7">
       <c r="A343" s="22" t="s">
         <v>874</v>
       </c>
@@ -16606,7 +16609,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="27">
+    <row r="350" spans="1:7">
       <c r="A350" s="22" t="s">
         <v>891</v>
       </c>
@@ -16652,7 +16655,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="27">
+    <row r="352" spans="1:7">
       <c r="A352" s="36" t="s">
         <v>895</v>
       </c>
@@ -16836,7 +16839,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="27">
+    <row r="360" spans="1:7">
       <c r="A360" s="22" t="s">
         <v>909</v>
       </c>
@@ -17043,7 +17046,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="27">
+    <row r="369" spans="1:7">
       <c r="A369" s="22" t="s">
         <v>946</v>
       </c>
@@ -17089,7 +17092,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="27">
+    <row r="371" spans="1:7">
       <c r="A371" s="22" t="s">
         <v>946</v>
       </c>
@@ -17112,7 +17115,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="27">
+    <row r="372" spans="1:7">
       <c r="A372" s="22" t="s">
         <v>946</v>
       </c>
@@ -17296,7 +17299,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="54">
+    <row r="380" spans="1:7" ht="40.5">
       <c r="A380" s="22" t="s">
         <v>961</v>
       </c>
@@ -17453,7 +17456,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="67.5">
+    <row r="387" spans="1:7" ht="27">
       <c r="A387" s="22" t="s">
         <v>982</v>
       </c>
@@ -17499,7 +17502,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="27">
+    <row r="389" spans="1:7">
       <c r="A389" s="22" t="s">
         <v>991</v>
       </c>
@@ -17522,7 +17525,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="27">
+    <row r="390" spans="1:7">
       <c r="A390" s="22" t="s">
         <v>991</v>
       </c>
@@ -17545,7 +17548,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="27">
+    <row r="391" spans="1:7">
       <c r="A391" s="22" t="s">
         <v>991</v>
       </c>
@@ -17568,7 +17571,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="27">
+    <row r="392" spans="1:7">
       <c r="A392" s="22" t="s">
         <v>991</v>
       </c>
@@ -17683,7 +17686,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="27">
+    <row r="397" spans="1:7">
       <c r="A397" s="22" t="s">
         <v>1001</v>
       </c>
@@ -17821,7 +17824,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="27">
+    <row r="403" spans="1:7">
       <c r="A403" s="22" t="s">
         <v>1016</v>
       </c>
@@ -17844,7 +17847,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="27">
+    <row r="404" spans="1:7">
       <c r="A404" s="22" t="s">
         <v>1026</v>
       </c>
@@ -17890,7 +17893,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="40.5">
+    <row r="406" spans="1:7" ht="27">
       <c r="A406" s="22" t="s">
         <v>1030</v>
       </c>
@@ -17913,7 +17916,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="27">
+    <row r="407" spans="1:7">
       <c r="A407" s="22" t="s">
         <v>1030</v>
       </c>
@@ -17936,7 +17939,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="27">
+    <row r="408" spans="1:7">
       <c r="A408" s="22" t="s">
         <v>1036</v>
       </c>
@@ -17957,7 +17960,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="27">
+    <row r="409" spans="1:7">
       <c r="A409" s="22" t="s">
         <v>1036</v>
       </c>
@@ -17978,7 +17981,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="27">
+    <row r="410" spans="1:7">
       <c r="A410" s="22" t="s">
         <v>1036</v>
       </c>
@@ -17999,7 +18002,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="27">
+    <row r="411" spans="1:7">
       <c r="A411" s="22" t="s">
         <v>1040</v>
       </c>
@@ -18020,7 +18023,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="27">
+    <row r="412" spans="1:7">
       <c r="A412" s="54" t="s">
         <v>1041</v>
       </c>
@@ -18066,24 +18069,24 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A414" s="20" t="s">
+    <row r="414" spans="1:7" ht="80.25" customHeight="1">
+      <c r="A414" s="23" t="s">
         <v>1198</v>
       </c>
-      <c r="B414" s="54" t="s">
+      <c r="B414" s="35" t="s">
         <v>1199</v>
       </c>
       <c r="C414" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D414" s="54" t="s">
+      <c r="D414" s="35" t="s">
         <v>1200</v>
       </c>
-      <c r="F414" s="67" t="s">
+      <c r="F414" s="68" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G414" s="68" t="s">
         <v>1201</v>
-      </c>
-      <c r="G414" s="67" t="s">
-        <v>1202</v>
       </c>
     </row>
   </sheetData>
